--- a/Code/Results/Cases/Case_1_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.591831617067243</v>
+        <v>1.591831617066845</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02742826365770057</v>
+        <v>0.02742826365778583</v>
       </c>
       <c r="E2">
-        <v>3.07431576768937</v>
+        <v>3.074315767689399</v>
       </c>
       <c r="F2">
-        <v>2.360606344350671</v>
+        <v>2.360606344350714</v>
       </c>
       <c r="G2">
-        <v>1.8859357011398</v>
+        <v>1.885935701139829</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.242235499336147</v>
+        <v>3.242235499336061</v>
       </c>
       <c r="L2">
-        <v>3.361846767696051</v>
+        <v>3.361846767696093</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.374503958406791</v>
+        <v>1.374503958406564</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01976202373280955</v>
+        <v>0.01976202373279889</v>
       </c>
       <c r="E3">
-        <v>2.665167612450489</v>
+        <v>2.665167612450517</v>
       </c>
       <c r="F3">
         <v>1.971554283799733</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.786152687170073</v>
+        <v>2.786152687170087</v>
       </c>
       <c r="L3">
-        <v>2.890486167937354</v>
+        <v>2.89048616793734</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.243649076070653</v>
+        <v>1.243649076070312</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01583707451899841</v>
+        <v>0.01583707451888827</v>
       </c>
       <c r="E4">
-        <v>2.418237490595388</v>
+        <v>2.418237490595374</v>
       </c>
       <c r="F4">
         <v>1.749928732034732</v>
       </c>
       <c r="G4">
-        <v>1.389396829435782</v>
+        <v>1.389396829435768</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.512444580234387</v>
+        <v>2.512444580234458</v>
       </c>
       <c r="L4">
         <v>2.607339528923816</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.190855723935698</v>
+        <v>1.190855723935584</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01440114935940073</v>
+        <v>0.01440114935921599</v>
       </c>
       <c r="E5">
-        <v>2.31846212660048</v>
+        <v>2.318462126600537</v>
       </c>
       <c r="F5">
         <v>1.663243415947292</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.402174546363682</v>
+        <v>2.402174546363696</v>
       </c>
       <c r="L5">
         <v>2.493216262171117</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.182118344976658</v>
+        <v>1.182118344977027</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01417173155229534</v>
+        <v>0.01417173155229889</v>
       </c>
       <c r="E6">
-        <v>2.301939916990449</v>
+        <v>2.301939916990463</v>
       </c>
       <c r="F6">
-        <v>1.649050002847218</v>
+        <v>1.649050002847204</v>
       </c>
       <c r="G6">
-        <v>1.307876507209087</v>
+        <v>1.307876507209059</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.383932410565976</v>
+        <v>2.383932410566047</v>
       </c>
       <c r="L6">
         <v>2.474334059515215</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.242935081054782</v>
+        <v>1.242935081054611</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01581708660541992</v>
+        <v>0.01581708660542702</v>
       </c>
       <c r="E7">
-        <v>2.416888715007005</v>
+        <v>2.416888715007019</v>
       </c>
       <c r="F7">
-        <v>1.748745823364658</v>
+        <v>1.748745823364629</v>
       </c>
       <c r="G7">
-        <v>1.388439981822032</v>
+        <v>1.388439981822046</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.510952694571088</v>
+        <v>2.510952694571017</v>
       </c>
       <c r="L7">
-        <v>2.605795696983222</v>
+        <v>2.605795696983193</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.516283073867612</v>
+        <v>1.516283073867811</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0246006489884536</v>
+        <v>0.0246006489884607</v>
       </c>
       <c r="E8">
-        <v>2.932201759428665</v>
+        <v>2.93220175942875</v>
       </c>
       <c r="F8">
         <v>2.222412897659652</v>
       </c>
       <c r="G8">
-        <v>1.773161473661034</v>
+        <v>1.773161473660991</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.083452577866893</v>
+        <v>3.08345257786695</v>
       </c>
       <c r="L8">
-        <v>3.197813453158716</v>
+        <v>3.19781345315873</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.079358849060725</v>
+        <v>2.079358849061464</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04994064233002504</v>
+        <v>0.04994064233011386</v>
       </c>
       <c r="E9">
         <v>3.989578655934224</v>
       </c>
       <c r="F9">
-        <v>3.328401911459707</v>
+        <v>3.328401911459792</v>
       </c>
       <c r="G9">
-        <v>2.681046952203531</v>
+        <v>2.681046952203602</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>4.274475129938963</v>
       </c>
       <c r="L9">
-        <v>4.426140839130369</v>
+        <v>4.426140839130426</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.521148078576459</v>
+        <v>2.521148078577255</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07713595258097428</v>
+        <v>0.07713595258071138</v>
       </c>
       <c r="E10">
         <v>4.818499642995278</v>
       </c>
       <c r="F10">
-        <v>4.32393958447102</v>
+        <v>4.323939584470992</v>
       </c>
       <c r="G10">
-        <v>3.506735776238628</v>
+        <v>3.506735776238642</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>5.224375840551431</v>
       </c>
       <c r="L10">
-        <v>5.401739972111955</v>
+        <v>5.401739972111869</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.73188584750892</v>
+        <v>2.73188584750983</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09262486440204043</v>
+        <v>0.09262486440179174</v>
       </c>
       <c r="E11">
-        <v>5.214590396781603</v>
+        <v>5.214590396781574</v>
       </c>
       <c r="F11">
-        <v>4.841830995205868</v>
+        <v>4.841830995205896</v>
       </c>
       <c r="G11">
-        <v>3.938800630555562</v>
+        <v>3.93880063055559</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.683609999272136</v>
+        <v>5.683609999272107</v>
       </c>
       <c r="L11">
-        <v>5.871851225892811</v>
+        <v>5.87185122589284</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.813522210088308</v>
+        <v>2.813522210087967</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09909891387809466</v>
+        <v>0.09909891387808756</v>
       </c>
       <c r="E12">
         <v>5.368249322622717</v>
@@ -822,7 +822,7 @@
         <v>5.862729867991021</v>
       </c>
       <c r="L12">
-        <v>6.054911541180331</v>
+        <v>6.05491154118036</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.795850306788168</v>
+        <v>2.795850306788623</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09767424564414284</v>
+        <v>0.09767424564439153</v>
       </c>
       <c r="E13">
-        <v>5.334974304795253</v>
+        <v>5.334974304795224</v>
       </c>
       <c r="F13">
-        <v>5.00490742842581</v>
+        <v>5.004907428425781</v>
       </c>
       <c r="G13">
         <v>4.075172085735673</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.823894794568844</v>
+        <v>5.82389479456873</v>
       </c>
       <c r="L13">
-        <v>6.015237065750313</v>
+        <v>6.01523706575037</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.738562362588709</v>
+        <v>2.738562362588311</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09314412886805457</v>
+        <v>0.09314412886798351</v>
       </c>
       <c r="E14">
-        <v>5.227151902123239</v>
+        <v>5.227151902123296</v>
       </c>
       <c r="F14">
-        <v>4.858721571675574</v>
+        <v>4.858721571675517</v>
       </c>
       <c r="G14">
         <v>3.952918343902553</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.698232426811984</v>
+        <v>5.698232426812041</v>
       </c>
       <c r="L14">
-        <v>5.886801872011546</v>
+        <v>5.886801872011631</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.703725994899116</v>
+        <v>2.703725994898434</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09045446523602862</v>
+        <v>0.09045446523624179</v>
       </c>
       <c r="E15">
         <v>5.161618809214843</v>
@@ -921,7 +921,7 @@
         <v>4.770923584573893</v>
       </c>
       <c r="G15">
-        <v>3.879551469331446</v>
+        <v>3.879551469331432</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.62198744098643</v>
+        <v>5.621987440986459</v>
       </c>
       <c r="L15">
         <v>5.808832883625968</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.507606056003851</v>
+        <v>2.507606056004192</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07619875838504697</v>
+        <v>0.07619875838478407</v>
       </c>
       <c r="E16">
-        <v>4.793069273389193</v>
+        <v>4.793069273389051</v>
       </c>
       <c r="F16">
-        <v>4.291646543493528</v>
+        <v>4.291646543493499</v>
       </c>
       <c r="G16">
-        <v>3.479847996409049</v>
+        <v>3.479847996409035</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.19501192061</v>
+        <v>5.195011920609858</v>
       </c>
       <c r="L16">
-        <v>5.371644203913633</v>
+        <v>5.371644203913576</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -988,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06834754701693413</v>
+        <v>0.06834754701716506</v>
       </c>
       <c r="E17">
-        <v>4.572413593773433</v>
+        <v>4.57241359377349</v>
       </c>
       <c r="F17">
-        <v>4.016181723128483</v>
+        <v>4.016181723128454</v>
       </c>
       <c r="G17">
         <v>3.250760632210387</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.940824720006134</v>
+        <v>4.940824720006191</v>
       </c>
       <c r="L17">
-        <v>5.110947609386983</v>
+        <v>5.110947609386912</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.323336453047091</v>
+        <v>2.323336453047432</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06411279241233814</v>
+        <v>0.0641127924123488</v>
       </c>
       <c r="E18">
-        <v>4.447216880054839</v>
+        <v>4.447216880054896</v>
       </c>
       <c r="F18">
         <v>3.863618702135369</v>
       </c>
       <c r="G18">
-        <v>3.12409786433571</v>
+        <v>3.124097864335724</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.797075798286471</v>
+        <v>4.7970757982865</v>
       </c>
       <c r="L18">
-        <v>4.963383011298959</v>
+        <v>4.963383011299044</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.300886647001789</v>
+        <v>2.300886647002528</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06272332311996109</v>
+        <v>0.06272332312006057</v>
       </c>
       <c r="E19">
-        <v>4.405099150417016</v>
+        <v>4.405099150417044</v>
       </c>
       <c r="F19">
         <v>3.812894611218525</v>
       </c>
       <c r="G19">
-        <v>3.082020181947556</v>
+        <v>3.082020181947584</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.748793061497565</v>
+        <v>4.748793061497622</v>
       </c>
       <c r="L19">
-        <v>4.913797497800857</v>
+        <v>4.913797497800886</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.402477797527581</v>
+        <v>2.402477797527524</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.06915326783423836</v>
+        <v>0.06915326783423481</v>
       </c>
       <c r="E20">
         <v>4.595719152126321</v>
       </c>
       <c r="F20">
-        <v>4.044877941934629</v>
+        <v>4.044877941934601</v>
       </c>
       <c r="G20">
-        <v>3.274602564761153</v>
+        <v>3.274602564761125</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.967621409394269</v>
+        <v>4.967621409394326</v>
       </c>
       <c r="L20">
-        <v>5.138445009103336</v>
+        <v>5.138445009103364</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.755335268946794</v>
+        <v>2.755335268945885</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09445659908404735</v>
+        <v>0.09445659908406157</v>
       </c>
       <c r="E21">
-        <v>5.258713227628306</v>
+        <v>5.258713227628363</v>
       </c>
       <c r="F21">
         <v>4.901288687017654</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.734987956950846</v>
+        <v>5.734987956950903</v>
       </c>
       <c r="L21">
-        <v>5.924377330724667</v>
+        <v>5.92437733072461</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.996962635682223</v>
+        <v>2.996962635681939</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1146730735020967</v>
+        <v>0.114673073501983</v>
       </c>
       <c r="E22">
-        <v>5.714121403559659</v>
+        <v>5.714121403559716</v>
       </c>
       <c r="F22">
-        <v>5.536484300616848</v>
+        <v>5.53648430061682</v>
       </c>
       <c r="G22">
-        <v>4.520695261454236</v>
+        <v>4.52069526145425</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.267938720138602</v>
+        <v>6.267938720138659</v>
       </c>
       <c r="L22">
-        <v>6.468367926741649</v>
+        <v>6.468367926741735</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.866809161642436</v>
+        <v>2.86680916164272</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1219,13 +1219,13 @@
         <v>0.1034738682294787</v>
       </c>
       <c r="E23">
-        <v>5.468629588300075</v>
+        <v>5.468629588300161</v>
       </c>
       <c r="F23">
         <v>5.189146729611281</v>
       </c>
       <c r="G23">
-        <v>4.229416575487292</v>
+        <v>4.229416575487306</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.980039845567092</v>
+        <v>5.980039845567148</v>
       </c>
       <c r="L23">
-        <v>6.174706014841576</v>
+        <v>6.174706014841632</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.396860724376097</v>
+        <v>2.396860724376381</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06878814348782214</v>
+        <v>0.06878814348802109</v>
       </c>
       <c r="E24">
-        <v>4.585177600351159</v>
+        <v>4.585177600351187</v>
       </c>
       <c r="F24">
-        <v>4.031886518895561</v>
+        <v>4.031886518895618</v>
       </c>
       <c r="G24">
-        <v>3.263808112066613</v>
+        <v>3.263808112066641</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.955499284359604</v>
+        <v>4.955499284359689</v>
       </c>
       <c r="L24">
-        <v>5.126006317173079</v>
+        <v>5.126006317173108</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.923098640555253</v>
+        <v>1.923098640555395</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04190490202775976</v>
+        <v>0.04190490202777042</v>
       </c>
       <c r="E25">
-        <v>3.696447894284063</v>
+        <v>3.696447894284091</v>
       </c>
       <c r="F25">
-        <v>3.003725509655226</v>
+        <v>3.003725509655254</v>
       </c>
       <c r="G25">
         <v>2.413360095659229</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.942035333072454</v>
+        <v>3.942035333072425</v>
       </c>
       <c r="L25">
-        <v>4.083801919377166</v>
+        <v>4.083801919377123</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.591831617066845</v>
+        <v>1.591831617067243</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02742826365778583</v>
+        <v>0.02742826365770057</v>
       </c>
       <c r="E2">
-        <v>3.074315767689399</v>
+        <v>3.07431576768937</v>
       </c>
       <c r="F2">
-        <v>2.360606344350714</v>
+        <v>2.360606344350671</v>
       </c>
       <c r="G2">
-        <v>1.885935701139829</v>
+        <v>1.8859357011398</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.242235499336061</v>
+        <v>3.242235499336147</v>
       </c>
       <c r="L2">
-        <v>3.361846767696093</v>
+        <v>3.361846767696051</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.374503958406564</v>
+        <v>1.374503958406791</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01976202373279889</v>
+        <v>0.01976202373280955</v>
       </c>
       <c r="E3">
-        <v>2.665167612450517</v>
+        <v>2.665167612450489</v>
       </c>
       <c r="F3">
         <v>1.971554283799733</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.786152687170087</v>
+        <v>2.786152687170073</v>
       </c>
       <c r="L3">
-        <v>2.89048616793734</v>
+        <v>2.890486167937354</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.243649076070312</v>
+        <v>1.243649076070653</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01583707451888827</v>
+        <v>0.01583707451899841</v>
       </c>
       <c r="E4">
-        <v>2.418237490595374</v>
+        <v>2.418237490595388</v>
       </c>
       <c r="F4">
         <v>1.749928732034732</v>
       </c>
       <c r="G4">
-        <v>1.389396829435768</v>
+        <v>1.389396829435782</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.512444580234458</v>
+        <v>2.512444580234387</v>
       </c>
       <c r="L4">
         <v>2.607339528923816</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.190855723935584</v>
+        <v>1.190855723935698</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01440114935921599</v>
+        <v>0.01440114935940073</v>
       </c>
       <c r="E5">
-        <v>2.318462126600537</v>
+        <v>2.31846212660048</v>
       </c>
       <c r="F5">
         <v>1.663243415947292</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.402174546363696</v>
+        <v>2.402174546363682</v>
       </c>
       <c r="L5">
         <v>2.493216262171117</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.182118344977027</v>
+        <v>1.182118344976658</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01417173155229889</v>
+        <v>0.01417173155229534</v>
       </c>
       <c r="E6">
-        <v>2.301939916990463</v>
+        <v>2.301939916990449</v>
       </c>
       <c r="F6">
-        <v>1.649050002847204</v>
+        <v>1.649050002847218</v>
       </c>
       <c r="G6">
-        <v>1.307876507209059</v>
+        <v>1.307876507209087</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.383932410566047</v>
+        <v>2.383932410565976</v>
       </c>
       <c r="L6">
         <v>2.474334059515215</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.242935081054611</v>
+        <v>1.242935081054782</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01581708660542702</v>
+        <v>0.01581708660541992</v>
       </c>
       <c r="E7">
-        <v>2.416888715007019</v>
+        <v>2.416888715007005</v>
       </c>
       <c r="F7">
-        <v>1.748745823364629</v>
+        <v>1.748745823364658</v>
       </c>
       <c r="G7">
-        <v>1.388439981822046</v>
+        <v>1.388439981822032</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.510952694571017</v>
+        <v>2.510952694571088</v>
       </c>
       <c r="L7">
-        <v>2.605795696983193</v>
+        <v>2.605795696983222</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.516283073867811</v>
+        <v>1.516283073867612</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0246006489884607</v>
+        <v>0.0246006489884536</v>
       </c>
       <c r="E8">
-        <v>2.93220175942875</v>
+        <v>2.932201759428665</v>
       </c>
       <c r="F8">
         <v>2.222412897659652</v>
       </c>
       <c r="G8">
-        <v>1.773161473660991</v>
+        <v>1.773161473661034</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.08345257786695</v>
+        <v>3.083452577866893</v>
       </c>
       <c r="L8">
-        <v>3.19781345315873</v>
+        <v>3.197813453158716</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.079358849061464</v>
+        <v>2.079358849060725</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04994064233011386</v>
+        <v>0.04994064233002504</v>
       </c>
       <c r="E9">
         <v>3.989578655934224</v>
       </c>
       <c r="F9">
-        <v>3.328401911459792</v>
+        <v>3.328401911459707</v>
       </c>
       <c r="G9">
-        <v>2.681046952203602</v>
+        <v>2.681046952203531</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>4.274475129938963</v>
       </c>
       <c r="L9">
-        <v>4.426140839130426</v>
+        <v>4.426140839130369</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.521148078577255</v>
+        <v>2.521148078576459</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07713595258071138</v>
+        <v>0.07713595258097428</v>
       </c>
       <c r="E10">
         <v>4.818499642995278</v>
       </c>
       <c r="F10">
-        <v>4.323939584470992</v>
+        <v>4.32393958447102</v>
       </c>
       <c r="G10">
-        <v>3.506735776238642</v>
+        <v>3.506735776238628</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>5.224375840551431</v>
       </c>
       <c r="L10">
-        <v>5.401739972111869</v>
+        <v>5.401739972111955</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.73188584750983</v>
+        <v>2.73188584750892</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09262486440179174</v>
+        <v>0.09262486440204043</v>
       </c>
       <c r="E11">
-        <v>5.214590396781574</v>
+        <v>5.214590396781603</v>
       </c>
       <c r="F11">
-        <v>4.841830995205896</v>
+        <v>4.841830995205868</v>
       </c>
       <c r="G11">
-        <v>3.93880063055559</v>
+        <v>3.938800630555562</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.683609999272107</v>
+        <v>5.683609999272136</v>
       </c>
       <c r="L11">
-        <v>5.87185122589284</v>
+        <v>5.871851225892811</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.813522210087967</v>
+        <v>2.813522210088308</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09909891387808756</v>
+        <v>0.09909891387809466</v>
       </c>
       <c r="E12">
         <v>5.368249322622717</v>
@@ -822,7 +822,7 @@
         <v>5.862729867991021</v>
       </c>
       <c r="L12">
-        <v>6.05491154118036</v>
+        <v>6.054911541180331</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.795850306788623</v>
+        <v>2.795850306788168</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09767424564439153</v>
+        <v>0.09767424564414284</v>
       </c>
       <c r="E13">
-        <v>5.334974304795224</v>
+        <v>5.334974304795253</v>
       </c>
       <c r="F13">
-        <v>5.004907428425781</v>
+        <v>5.00490742842581</v>
       </c>
       <c r="G13">
         <v>4.075172085735673</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.82389479456873</v>
+        <v>5.823894794568844</v>
       </c>
       <c r="L13">
-        <v>6.01523706575037</v>
+        <v>6.015237065750313</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.738562362588311</v>
+        <v>2.738562362588709</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09314412886798351</v>
+        <v>0.09314412886805457</v>
       </c>
       <c r="E14">
-        <v>5.227151902123296</v>
+        <v>5.227151902123239</v>
       </c>
       <c r="F14">
-        <v>4.858721571675517</v>
+        <v>4.858721571675574</v>
       </c>
       <c r="G14">
         <v>3.952918343902553</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.698232426812041</v>
+        <v>5.698232426811984</v>
       </c>
       <c r="L14">
-        <v>5.886801872011631</v>
+        <v>5.886801872011546</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.703725994898434</v>
+        <v>2.703725994899116</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09045446523624179</v>
+        <v>0.09045446523602862</v>
       </c>
       <c r="E15">
         <v>5.161618809214843</v>
@@ -921,7 +921,7 @@
         <v>4.770923584573893</v>
       </c>
       <c r="G15">
-        <v>3.879551469331432</v>
+        <v>3.879551469331446</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.621987440986459</v>
+        <v>5.62198744098643</v>
       </c>
       <c r="L15">
         <v>5.808832883625968</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.507606056004192</v>
+        <v>2.507606056003851</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07619875838478407</v>
+        <v>0.07619875838504697</v>
       </c>
       <c r="E16">
-        <v>4.793069273389051</v>
+        <v>4.793069273389193</v>
       </c>
       <c r="F16">
-        <v>4.291646543493499</v>
+        <v>4.291646543493528</v>
       </c>
       <c r="G16">
-        <v>3.479847996409035</v>
+        <v>3.479847996409049</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.195011920609858</v>
+        <v>5.19501192061</v>
       </c>
       <c r="L16">
-        <v>5.371644203913576</v>
+        <v>5.371644203913633</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -988,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06834754701716506</v>
+        <v>0.06834754701693413</v>
       </c>
       <c r="E17">
-        <v>4.57241359377349</v>
+        <v>4.572413593773433</v>
       </c>
       <c r="F17">
-        <v>4.016181723128454</v>
+        <v>4.016181723128483</v>
       </c>
       <c r="G17">
         <v>3.250760632210387</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.940824720006191</v>
+        <v>4.940824720006134</v>
       </c>
       <c r="L17">
-        <v>5.110947609386912</v>
+        <v>5.110947609386983</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.323336453047432</v>
+        <v>2.323336453047091</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0641127924123488</v>
+        <v>0.06411279241233814</v>
       </c>
       <c r="E18">
-        <v>4.447216880054896</v>
+        <v>4.447216880054839</v>
       </c>
       <c r="F18">
         <v>3.863618702135369</v>
       </c>
       <c r="G18">
-        <v>3.124097864335724</v>
+        <v>3.12409786433571</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.7970757982865</v>
+        <v>4.797075798286471</v>
       </c>
       <c r="L18">
-        <v>4.963383011299044</v>
+        <v>4.963383011298959</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.300886647002528</v>
+        <v>2.300886647001789</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06272332312006057</v>
+        <v>0.06272332311996109</v>
       </c>
       <c r="E19">
-        <v>4.405099150417044</v>
+        <v>4.405099150417016</v>
       </c>
       <c r="F19">
         <v>3.812894611218525</v>
       </c>
       <c r="G19">
-        <v>3.082020181947584</v>
+        <v>3.082020181947556</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.748793061497622</v>
+        <v>4.748793061497565</v>
       </c>
       <c r="L19">
-        <v>4.913797497800886</v>
+        <v>4.913797497800857</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.402477797527524</v>
+        <v>2.402477797527581</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.06915326783423481</v>
+        <v>0.06915326783423836</v>
       </c>
       <c r="E20">
         <v>4.595719152126321</v>
       </c>
       <c r="F20">
-        <v>4.044877941934601</v>
+        <v>4.044877941934629</v>
       </c>
       <c r="G20">
-        <v>3.274602564761125</v>
+        <v>3.274602564761153</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.967621409394326</v>
+        <v>4.967621409394269</v>
       </c>
       <c r="L20">
-        <v>5.138445009103364</v>
+        <v>5.138445009103336</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.755335268945885</v>
+        <v>2.755335268946794</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09445659908406157</v>
+        <v>0.09445659908404735</v>
       </c>
       <c r="E21">
-        <v>5.258713227628363</v>
+        <v>5.258713227628306</v>
       </c>
       <c r="F21">
         <v>4.901288687017654</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.734987956950903</v>
+        <v>5.734987956950846</v>
       </c>
       <c r="L21">
-        <v>5.92437733072461</v>
+        <v>5.924377330724667</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.996962635681939</v>
+        <v>2.996962635682223</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.114673073501983</v>
+        <v>0.1146730735020967</v>
       </c>
       <c r="E22">
-        <v>5.714121403559716</v>
+        <v>5.714121403559659</v>
       </c>
       <c r="F22">
-        <v>5.53648430061682</v>
+        <v>5.536484300616848</v>
       </c>
       <c r="G22">
-        <v>4.52069526145425</v>
+        <v>4.520695261454236</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.267938720138659</v>
+        <v>6.267938720138602</v>
       </c>
       <c r="L22">
-        <v>6.468367926741735</v>
+        <v>6.468367926741649</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.86680916164272</v>
+        <v>2.866809161642436</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1219,13 +1219,13 @@
         <v>0.1034738682294787</v>
       </c>
       <c r="E23">
-        <v>5.468629588300161</v>
+        <v>5.468629588300075</v>
       </c>
       <c r="F23">
         <v>5.189146729611281</v>
       </c>
       <c r="G23">
-        <v>4.229416575487306</v>
+        <v>4.229416575487292</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.980039845567148</v>
+        <v>5.980039845567092</v>
       </c>
       <c r="L23">
-        <v>6.174706014841632</v>
+        <v>6.174706014841576</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.396860724376381</v>
+        <v>2.396860724376097</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06878814348802109</v>
+        <v>0.06878814348782214</v>
       </c>
       <c r="E24">
-        <v>4.585177600351187</v>
+        <v>4.585177600351159</v>
       </c>
       <c r="F24">
-        <v>4.031886518895618</v>
+        <v>4.031886518895561</v>
       </c>
       <c r="G24">
-        <v>3.263808112066641</v>
+        <v>3.263808112066613</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.955499284359689</v>
+        <v>4.955499284359604</v>
       </c>
       <c r="L24">
-        <v>5.126006317173108</v>
+        <v>5.126006317173079</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.923098640555395</v>
+        <v>1.923098640555253</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04190490202777042</v>
+        <v>0.04190490202775976</v>
       </c>
       <c r="E25">
-        <v>3.696447894284091</v>
+        <v>3.696447894284063</v>
       </c>
       <c r="F25">
-        <v>3.003725509655254</v>
+        <v>3.003725509655226</v>
       </c>
       <c r="G25">
         <v>2.413360095659229</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.942035333072425</v>
+        <v>3.942035333072454</v>
       </c>
       <c r="L25">
-        <v>4.083801919377123</v>
+        <v>4.083801919377166</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.591831617067243</v>
+        <v>1.591753618497961</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02742826365770057</v>
+        <v>0.02723647130830997</v>
       </c>
       <c r="E2">
-        <v>3.07431576768937</v>
+        <v>3.07375947554533</v>
       </c>
       <c r="F2">
-        <v>2.360606344350671</v>
+        <v>2.355513638248084</v>
       </c>
       <c r="G2">
-        <v>1.8859357011398</v>
+        <v>0.6490915094276914</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.235081968876827</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,36 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.242235499336147</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.361846767696051</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>3.241825331818546</v>
+      </c>
+      <c r="M2">
+        <v>3.361491563498305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.374503958406791</v>
+        <v>1.374455422152977</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01976202373280955</v>
+        <v>0.01961194260330501</v>
       </c>
       <c r="E3">
-        <v>2.665167612450489</v>
+        <v>2.664738440474309</v>
       </c>
       <c r="F3">
-        <v>1.971554283799733</v>
+        <v>1.967366696616082</v>
       </c>
       <c r="G3">
-        <v>1.569033283491436</v>
+        <v>0.5378750698899495</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.030522751747867</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,36 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.786152687170073</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.890486167937354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>2.785862847125557</v>
+      </c>
+      <c r="M3">
+        <v>2.890239681858517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.243649076070653</v>
+        <v>1.243614900429634</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01583707451899841</v>
+        <v>0.0157093349892925</v>
       </c>
       <c r="E4">
-        <v>2.418237490595388</v>
+        <v>2.41787710484482</v>
       </c>
       <c r="F4">
-        <v>1.749928732034732</v>
+        <v>1.746245715760992</v>
       </c>
       <c r="G4">
-        <v>1.389396829435782</v>
+        <v>0.4745358907844803</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9148599430247799</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,36 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.512444580234387</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2.607339528923816</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>2.51221617089152</v>
+      </c>
+      <c r="M4">
+        <v>2.607148084107209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.190855723935698</v>
+        <v>1.190826654977457</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01440114935940073</v>
+        <v>0.01428184901959284</v>
       </c>
       <c r="E5">
-        <v>2.31846212660048</v>
+        <v>2.318127998236804</v>
       </c>
       <c r="F5">
-        <v>1.663243415947292</v>
+        <v>1.659755739744114</v>
       </c>
       <c r="G5">
-        <v>1.319336262723454</v>
+        <v>0.4497612594511224</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8698209683621343</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,36 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.402174546363682</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2.493216262171117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>2.401968720835015</v>
+      </c>
+      <c r="M5">
+        <v>2.493044934586734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.182118344976658</v>
+        <v>1.182090083751348</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01417173155229534</v>
+        <v>0.01405379631655279</v>
       </c>
       <c r="E6">
-        <v>2.301939916990449</v>
+        <v>2.301610055396168</v>
       </c>
       <c r="F6">
-        <v>1.649050002847218</v>
+        <v>1.645594207218437</v>
       </c>
       <c r="G6">
-        <v>1.307876507209087</v>
+        <v>0.4457046309169925</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8624582209519644</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,36 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.383932410565976</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2.474334059515215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>2.383730204040404</v>
+      </c>
+      <c r="M6">
+        <v>2.474165948441296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.242935081054782</v>
+        <v>1.242900977080041</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01581708660541992</v>
+        <v>0.01568946340011124</v>
       </c>
       <c r="E7">
-        <v>2.416888715007005</v>
+        <v>2.416528689911743</v>
       </c>
       <c r="F7">
-        <v>1.748745823364658</v>
+        <v>1.745065480111776</v>
       </c>
       <c r="G7">
-        <v>1.388439981822032</v>
+        <v>0.4741978238077849</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9142445365914398</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,36 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.510952694571088</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>2.605795696983222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>2.510724598935994</v>
+      </c>
+      <c r="M7">
+        <v>2.605604532109567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.516283073867612</v>
+        <v>1.516216139438598</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0246006489884536</v>
+        <v>0.0244240233977564</v>
       </c>
       <c r="E8">
-        <v>2.932201759428665</v>
+        <v>2.931691601624181</v>
       </c>
       <c r="F8">
-        <v>2.222412897659652</v>
+        <v>2.217644656731593</v>
       </c>
       <c r="G8">
-        <v>1.773161473661034</v>
+        <v>0.6095803525374208</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.162221225910088</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,36 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.083452577866893</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>3.197813453158716</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>3.083086949634946</v>
+      </c>
+      <c r="M8">
+        <v>3.197498598645055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.079358849060725</v>
+        <v>2.079185830064432</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04994064233002504</v>
+        <v>0.04963235639847952</v>
       </c>
       <c r="E9">
-        <v>3.989578655934224</v>
+        <v>3.988665577786492</v>
       </c>
       <c r="F9">
-        <v>3.328401911459707</v>
+        <v>3.320934208616706</v>
       </c>
       <c r="G9">
-        <v>2.681046952203531</v>
+        <v>0.9261039721073558</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.750284149007953</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,36 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.274475129938963</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>4.426140839130369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>4.273697957620186</v>
+      </c>
+      <c r="M9">
+        <v>4.425450548151588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.521148078576459</v>
+        <v>2.520845754248796</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07713595258097428</v>
+        <v>0.07668922036428683</v>
       </c>
       <c r="E10">
-        <v>4.818499642995278</v>
+        <v>4.817149541187035</v>
       </c>
       <c r="F10">
-        <v>4.32393958447102</v>
+        <v>4.313808230826396</v>
       </c>
       <c r="G10">
-        <v>3.506735776238628</v>
+        <v>1.211740379201885</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.287176601594709</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,36 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.224375840551431</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>5.401739972111955</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>5.223117172700825</v>
+      </c>
+      <c r="M10">
+        <v>5.400606928990442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.73188584750892</v>
+        <v>2.731503069793689</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09262486440204043</v>
+        <v>0.09209824238690345</v>
       </c>
       <c r="E11">
-        <v>5.214590396781603</v>
+        <v>5.21298066139471</v>
       </c>
       <c r="F11">
-        <v>4.841830995205868</v>
+        <v>4.830207908815112</v>
       </c>
       <c r="G11">
-        <v>3.938800630555562</v>
+        <v>1.360621489161076</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.568626798149964</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,36 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.683609999272136</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>5.871851225892811</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>5.682055736647726</v>
+      </c>
+      <c r="M11">
+        <v>5.870445648479773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.813522210088308</v>
+        <v>2.813104321784579</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09909891387809466</v>
+        <v>0.09853848127389142</v>
       </c>
       <c r="E12">
-        <v>5.368249322622717</v>
+        <v>5.366528099881805</v>
       </c>
       <c r="F12">
-        <v>5.050460440129228</v>
+        <v>5.038213138390489</v>
       </c>
       <c r="G12">
-        <v>4.113291751256881</v>
+        <v>1.420652794823084</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.682368331700545</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,36 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.862729867991021</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.054911541180331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>5.861047119511284</v>
+      </c>
+      <c r="M12">
+        <v>6.053387406178331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.795850306788168</v>
+        <v>2.795440220788691</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09767424564414284</v>
+        <v>0.09712127776811741</v>
       </c>
       <c r="E13">
-        <v>5.334974304795253</v>
+        <v>5.333277776732643</v>
       </c>
       <c r="F13">
-        <v>5.00490742842581</v>
+        <v>4.992797621269318</v>
       </c>
       <c r="G13">
-        <v>4.075172085735673</v>
+        <v>1.407542620108842</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.657516705244902</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,36 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.823894794568844</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.015237065750313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>5.822240577198841</v>
+      </c>
+      <c r="M13">
+        <v>6.013739261178472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.738562362588709</v>
+        <v>2.73817680129298</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09314412886805457</v>
+        <v>0.09261480521182364</v>
       </c>
       <c r="E14">
-        <v>5.227151902123239</v>
+        <v>5.225533292869272</v>
       </c>
       <c r="F14">
-        <v>4.858721571675574</v>
+        <v>4.847048466698368</v>
       </c>
       <c r="G14">
-        <v>3.952918343902553</v>
+        <v>1.365480429027969</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.577827864296296</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,36 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.698232426811984</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>5.886801872011546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>5.696667968380922</v>
+      </c>
+      <c r="M14">
+        <v>5.885386888392986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.703725994899116</v>
+        <v>2.703354790785511</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09045446523602862</v>
+        <v>0.08993911723462134</v>
       </c>
       <c r="E15">
-        <v>5.161618809214843</v>
+        <v>5.160046039275358</v>
       </c>
       <c r="F15">
-        <v>4.770923584573893</v>
+        <v>4.759509504349296</v>
       </c>
       <c r="G15">
-        <v>3.879551469331446</v>
+        <v>1.340225708596435</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.530014840255944</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,36 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.62198744098643</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>5.808832883625968</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>5.620475589769569</v>
+      </c>
+      <c r="M15">
+        <v>5.807466429550715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.507606056003851</v>
+        <v>2.507308440874226</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07619875838504697</v>
+        <v>0.07575682326081079</v>
       </c>
       <c r="E16">
-        <v>4.793069273389193</v>
+        <v>4.791734588486491</v>
       </c>
       <c r="F16">
-        <v>4.291646543493528</v>
+        <v>4.281605629766602</v>
       </c>
       <c r="G16">
-        <v>3.479847996409049</v>
+        <v>1.202463472561774</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.269671627429432</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,36 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.19501192061</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>5.371644203913633</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>5.193770621159018</v>
+      </c>
+      <c r="M16">
+        <v>5.370527161978032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.390059226925928</v>
+        <v>2.389800354847296</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06834754701693413</v>
+        <v>0.06794567997379275</v>
       </c>
       <c r="E17">
-        <v>4.572413593773433</v>
+        <v>4.571206904472064</v>
       </c>
       <c r="F17">
-        <v>4.016181723128483</v>
+        <v>4.006900716643173</v>
       </c>
       <c r="G17">
-        <v>3.250760632210387</v>
+        <v>1.123361391479165</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.120579888804357</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,36 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.940824720006134</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>5.110947609386983</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>4.939726683239229</v>
+      </c>
+      <c r="M17">
+        <v>5.10996248467896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.323336453047091</v>
+        <v>2.323097953200204</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06411279241233814</v>
+        <v>0.06373247051626052</v>
       </c>
       <c r="E18">
-        <v>4.447216880054839</v>
+        <v>4.446078443339502</v>
       </c>
       <c r="F18">
-        <v>3.863618702135369</v>
+        <v>3.854749953880429</v>
       </c>
       <c r="G18">
-        <v>3.12409786433571</v>
+        <v>1.07957581831694</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.038190312591965</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,36 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.797075798286471</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>4.963383011298959</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>4.796053406086031</v>
+      </c>
+      <c r="M18">
+        <v>4.962467483470434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.300886647001789</v>
+        <v>2.300654751209777</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06272332311996109</v>
+        <v>0.06235006400465437</v>
       </c>
       <c r="E19">
-        <v>4.405099150417016</v>
+        <v>4.403983001110817</v>
       </c>
       <c r="F19">
-        <v>3.812894611218525</v>
+        <v>3.80416161838923</v>
       </c>
       <c r="G19">
-        <v>3.082020181947556</v>
+        <v>1.06502182401745</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.010827646292014</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,36 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.748793061497565</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>4.913797497800857</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>4.747795245864069</v>
+      </c>
+      <c r="M19">
+        <v>4.912904571696387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.402477797527581</v>
+        <v>2.402215007680752</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.06915326783423836</v>
+        <v>0.06874729721629436</v>
       </c>
       <c r="E20">
-        <v>4.595719152126321</v>
+        <v>4.594499417846663</v>
       </c>
       <c r="F20">
-        <v>4.044877941934629</v>
+        <v>4.035518718884759</v>
       </c>
       <c r="G20">
-        <v>3.274602564761153</v>
+        <v>1.131599130729356</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.136091797395238</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,36 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.967621409394269</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>5.138445009103336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>4.966508852447902</v>
+      </c>
+      <c r="M20">
+        <v>5.137446520183289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.755335268946794</v>
+        <v>2.754942646774907</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09445659908404735</v>
+        <v>0.09392043917699766</v>
       </c>
       <c r="E21">
-        <v>5.258713227628306</v>
+        <v>5.257072136934653</v>
       </c>
       <c r="F21">
-        <v>4.901288687017654</v>
+        <v>4.889489126749368</v>
       </c>
       <c r="G21">
-        <v>3.988504493879844</v>
+        <v>1.377726702408069</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.601021965451011</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,36 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.734987956950846</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>5.924377330724667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>5.733397643324622</v>
+      </c>
+      <c r="M21">
+        <v>5.922938492804576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.996962635682223</v>
+        <v>2.996456611742246</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1146730735020967</v>
+        <v>0.1140300233211136</v>
       </c>
       <c r="E22">
-        <v>5.714121403559659</v>
+        <v>5.712123910338562</v>
       </c>
       <c r="F22">
-        <v>5.536484300616848</v>
+        <v>5.522725931428113</v>
       </c>
       <c r="G22">
-        <v>4.520695261454236</v>
+        <v>1.560623171809794</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.948079153088457</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,36 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.267938720138602</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.468367926741649</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>6.265934333483472</v>
+      </c>
+      <c r="M22">
+        <v>6.46654683919823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.866809161642436</v>
+        <v>2.866367043640537</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1034738682294787</v>
+        <v>0.1028904207417085</v>
       </c>
       <c r="E23">
-        <v>5.468629588300075</v>
+        <v>5.466831945164131</v>
       </c>
       <c r="F23">
-        <v>5.189146729611281</v>
+        <v>5.176476583126089</v>
       </c>
       <c r="G23">
-        <v>4.229416575487292</v>
+        <v>1.460575971651394</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.758085709812377</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,36 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.980039845567092</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.174706014841576</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>5.97826856289808</v>
+      </c>
+      <c r="M23">
+        <v>6.173100161761852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.396860724376097</v>
+        <v>2.396599711573458</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06878814348782214</v>
+        <v>0.06838403266316462</v>
       </c>
       <c r="E24">
-        <v>4.585177600351159</v>
+        <v>4.583963780025385</v>
       </c>
       <c r="F24">
-        <v>4.031886518895561</v>
+        <v>4.022562732975189</v>
       </c>
       <c r="G24">
-        <v>3.263808112066613</v>
+        <v>1.127869645436022</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.129068631890149</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,36 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.955499284359604</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>5.126006317173079</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>4.954393312546443</v>
+      </c>
+      <c r="M24">
+        <v>5.125013889321394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.923098640555253</v>
+        <v>1.922960861773106</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04190490202775976</v>
+        <v>0.0416376711620714</v>
       </c>
       <c r="E25">
-        <v>3.696447894284063</v>
+        <v>3.69566142900166</v>
       </c>
       <c r="F25">
-        <v>3.003725509655226</v>
+        <v>2.997075865023987</v>
       </c>
       <c r="G25">
-        <v>2.413360095659229</v>
+        <v>0.8331040285704603</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.576585879476369</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1385,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.942035333072454</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>4.083801919377166</v>
+        <v>3.941392075950205</v>
+      </c>
+      <c r="M25">
+        <v>4.08323428092632</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.591753618497961</v>
+        <v>0.26902541992078</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02723647130830997</v>
+        <v>0.1857253111755455</v>
       </c>
       <c r="E2">
-        <v>3.07375947554533</v>
+        <v>0.04728974613873582</v>
       </c>
       <c r="F2">
-        <v>2.355513638248084</v>
+        <v>10.46606482325637</v>
       </c>
       <c r="G2">
-        <v>0.6490915094276914</v>
+        <v>0.000656527031455916</v>
       </c>
       <c r="H2">
-        <v>1.235081968876827</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3678533825406447</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>3.241825331818546</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.361491563498305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>4.288064236591595</v>
+      </c>
+      <c r="O2">
+        <v>8.518794527723117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.374455422152977</v>
+        <v>0.2356773118712994</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01961194260330501</v>
+        <v>0.1554439418545428</v>
       </c>
       <c r="E3">
-        <v>2.664738440474309</v>
+        <v>0.04329014508791218</v>
       </c>
       <c r="F3">
-        <v>1.967366696616082</v>
+        <v>8.825921444097446</v>
       </c>
       <c r="G3">
-        <v>0.5378750698899495</v>
+        <v>0.0006841353635200692</v>
       </c>
       <c r="H3">
-        <v>1.030522751747867</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3128667258892364</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.785862847125557</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.890239681858517</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>3.836929003758598</v>
+      </c>
+      <c r="O3">
+        <v>7.165746169598947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.243614900429634</v>
+        <v>0.2152931864900438</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0157093349892925</v>
+        <v>0.138295645163808</v>
       </c>
       <c r="E4">
-        <v>2.41787710484482</v>
+        <v>0.04108853155296188</v>
       </c>
       <c r="F4">
-        <v>1.746245715760992</v>
+        <v>7.900209324014071</v>
       </c>
       <c r="G4">
-        <v>0.4745358907844803</v>
+        <v>0.0007006882838007655</v>
       </c>
       <c r="H4">
-        <v>0.9148599430247799</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2819182253467005</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.51221617089152</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>2.607148084107209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>3.56009691549059</v>
+      </c>
+      <c r="O4">
+        <v>6.4017730655587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.190826654977457</v>
+        <v>0.2070077212374315</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01428184901959284</v>
+        <v>0.1315777496819095</v>
       </c>
       <c r="E5">
-        <v>2.318127998236804</v>
+        <v>0.04024254611752731</v>
       </c>
       <c r="F5">
-        <v>1.659755739744114</v>
+        <v>7.538649298833576</v>
       </c>
       <c r="G5">
-        <v>0.4497612594511224</v>
+        <v>0.0007073828616197529</v>
       </c>
       <c r="H5">
-        <v>0.8698209683621343</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2698514341726366</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.401968720835015</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2.493044934586734</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>3.447332324296866</v>
+      </c>
+      <c r="O5">
+        <v>6.103300291524675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.182090083751348</v>
+        <v>0.2056331561250033</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01405379631655279</v>
+        <v>0.1304763718241304</v>
       </c>
       <c r="E6">
-        <v>2.301610055396168</v>
+        <v>0.04010485864704094</v>
       </c>
       <c r="F6">
-        <v>1.645594207218437</v>
+        <v>7.479445724683671</v>
       </c>
       <c r="G6">
-        <v>0.4457046309169925</v>
+        <v>0.0007084925928036486</v>
       </c>
       <c r="H6">
-        <v>0.8624582209519644</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.267876803957364</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.383730204040404</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2.474165948441296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>3.428610827881613</v>
+      </c>
+      <c r="O6">
+        <v>6.05442164910778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.242900977080041</v>
+        <v>0.2151813622175922</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01568946340011124</v>
+        <v>0.1382040536350644</v>
       </c>
       <c r="E7">
-        <v>2.416528689911743</v>
+        <v>0.04107692917449945</v>
       </c>
       <c r="F7">
-        <v>1.745065480111776</v>
+        <v>7.895275018145981</v>
       </c>
       <c r="G7">
-        <v>0.4741978238077849</v>
+        <v>0.0007007787206118647</v>
       </c>
       <c r="H7">
-        <v>0.9142445365914398</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2817534616997079</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.510724598935994</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>2.605604532109567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>3.558575936671105</v>
+      </c>
+      <c r="O7">
+        <v>6.397700082485329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.516216139438598</v>
+        <v>0.2575068091880723</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0244240233977564</v>
+        <v>0.1749178571033241</v>
       </c>
       <c r="E8">
-        <v>2.931691601624181</v>
+        <v>0.04584892334144719</v>
       </c>
       <c r="F8">
-        <v>2.217644656731593</v>
+        <v>9.880260553455997</v>
       </c>
       <c r="G8">
-        <v>0.6095803525374208</v>
+        <v>0.0006661642584262288</v>
       </c>
       <c r="H8">
-        <v>1.162221225910088</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3481944735420228</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>3.083086949634946</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>3.197498598645055</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>4.13248070584342</v>
+      </c>
+      <c r="O8">
+        <v>8.035590094027071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.079185830064432</v>
+        <v>0.3413255086066584</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04963235639847952</v>
+        <v>0.2653253305139174</v>
       </c>
       <c r="E9">
-        <v>3.988665577786492</v>
+        <v>0.05814236309032239</v>
       </c>
       <c r="F9">
-        <v>3.320934208616706</v>
+        <v>14.76845770388053</v>
       </c>
       <c r="G9">
-        <v>0.9261039721073558</v>
+        <v>0.0005915049990705238</v>
       </c>
       <c r="H9">
-        <v>1.750284149007953</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5126979166899304</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>4.273697957620186</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>4.425450548151588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>5.259113965554377</v>
+      </c>
+      <c r="O9">
+        <v>12.0669626145679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.520845754248796</v>
+        <v>0.4035430215420206</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07668922036428683</v>
+        <v>0.3651052546293414</v>
       </c>
       <c r="E10">
-        <v>4.817149541187035</v>
+        <v>0.07173946869765047</v>
       </c>
       <c r="F10">
-        <v>4.313808230826396</v>
+        <v>20.0498375780507</v>
       </c>
       <c r="G10">
-        <v>1.211740379201885</v>
+        <v>0.0005213260562538344</v>
       </c>
       <c r="H10">
-        <v>2.287176601594709</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6910661131534965</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.223117172700825</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>5.400606928990442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>6.087573303855663</v>
+      </c>
+      <c r="O10">
+        <v>16.42455802389881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.731503069793689</v>
+        <v>0.4320172635535471</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09209824238690345</v>
+        <v>0.4388204443217489</v>
       </c>
       <c r="E11">
-        <v>5.21298066139471</v>
+        <v>0.08138433966977487</v>
       </c>
       <c r="F11">
-        <v>4.830207908815112</v>
+        <v>23.81319166056335</v>
       </c>
       <c r="G11">
-        <v>1.360621489161076</v>
+        <v>0.0004757756177564811</v>
       </c>
       <c r="H11">
-        <v>2.568626798149964</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.8181735337148268</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.682055736647726</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>5.870445648479773</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>6.46463631905084</v>
+      </c>
+      <c r="O11">
+        <v>19.53370451539553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.813104321784579</v>
+        <v>0.4428269586278333</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09853848127389142</v>
+        <v>0.4822348747235026</v>
       </c>
       <c r="E12">
-        <v>5.366528099881805</v>
+        <v>0.08680397582796928</v>
       </c>
       <c r="F12">
-        <v>5.038213138390489</v>
+        <v>25.95791011137209</v>
       </c>
       <c r="G12">
-        <v>1.420652794823084</v>
+        <v>0.000451124640148243</v>
       </c>
       <c r="H12">
-        <v>2.682368331700545</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.8904966753354557</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.861047119511284</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>6.053387406178331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>6.607448666631797</v>
+      </c>
+      <c r="O12">
+        <v>21.30795201834192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.795440220788691</v>
+        <v>0.4404976502403031</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09712127776811741</v>
+        <v>0.4713510806998329</v>
       </c>
       <c r="E13">
-        <v>5.333277776732643</v>
+        <v>0.08546646461356033</v>
       </c>
       <c r="F13">
-        <v>4.992797621269318</v>
+        <v>25.42575703066461</v>
       </c>
       <c r="G13">
-        <v>1.407542620108842</v>
+        <v>0.000457160671660328</v>
       </c>
       <c r="H13">
-        <v>2.657516705244902</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.8725638803189497</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.822240577198841</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>6.013739261178472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>6.57669028835403</v>
+      </c>
+      <c r="O13">
+        <v>20.86753015740825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.73817680129298</v>
+        <v>0.4329060254516151</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09261480521182364</v>
+        <v>0.4418486321387718</v>
       </c>
       <c r="E14">
-        <v>5.225533292869272</v>
+        <v>0.08176939788265614</v>
       </c>
       <c r="F14">
-        <v>4.847048466698368</v>
+        <v>23.96464412857733</v>
       </c>
       <c r="G14">
-        <v>1.365480429027969</v>
+        <v>0.0004740058579949935</v>
       </c>
       <c r="H14">
-        <v>2.577827864296296</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.8232845774384145</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.696667968380922</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>5.885386888392986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>6.476385042944003</v>
+      </c>
+      <c r="O14">
+        <v>19.6589316132862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.703354790785511</v>
+        <v>0.4282595438104835</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.08993911723462134</v>
+        <v>0.4267346292487133</v>
       </c>
       <c r="E15">
-        <v>5.160046039275358</v>
+        <v>0.07983782149653251</v>
       </c>
       <c r="F15">
-        <v>4.759509504349296</v>
+        <v>23.20609568087713</v>
       </c>
       <c r="G15">
-        <v>1.340225708596435</v>
+        <v>0.0004829160399700214</v>
       </c>
       <c r="H15">
-        <v>2.530014840255944</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7976813544275529</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.620475589769569</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>5.807466429550715</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>6.414948655393175</v>
+      </c>
+      <c r="O15">
+        <v>19.03182159518192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.507308440874226</v>
+        <v>0.4016858187138155</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07575682326081079</v>
+        <v>0.3612813248001032</v>
       </c>
       <c r="E16">
-        <v>4.791734588486491</v>
+        <v>0.0712270166384279</v>
       </c>
       <c r="F16">
-        <v>4.281605629766602</v>
+        <v>19.85095507607468</v>
       </c>
       <c r="G16">
-        <v>1.202463472561774</v>
+        <v>0.0005238245570693412</v>
       </c>
       <c r="H16">
-        <v>2.269671627429432</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6843459054984038</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.193770621159018</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>5.370527161978032</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>6.062935127839523</v>
+      </c>
+      <c r="O16">
+        <v>16.26036512219363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.389800354847296</v>
+        <v>0.3854292867134319</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06794567997379275</v>
+        <v>0.3307821045842161</v>
       </c>
       <c r="E17">
-        <v>4.571206904472064</v>
+        <v>0.06710762177975127</v>
       </c>
       <c r="F17">
-        <v>4.006900716643173</v>
+        <v>18.25350207772345</v>
       </c>
       <c r="G17">
-        <v>1.123361391479165</v>
+        <v>0.0005442667868033323</v>
       </c>
       <c r="H17">
-        <v>2.120579888804357</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6303700850853744</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.939726683239229</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>5.10996248467896</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>5.847034662043143</v>
+      </c>
+      <c r="O17">
+        <v>14.94187678553882</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.323097953200204</v>
+        <v>0.376094915385309</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06373247051626052</v>
+        <v>0.3151890226069014</v>
       </c>
       <c r="E18">
-        <v>4.446078443339502</v>
+        <v>0.064983198125109</v>
       </c>
       <c r="F18">
-        <v>3.854749953880429</v>
+        <v>17.42968611546701</v>
       </c>
       <c r="G18">
-        <v>1.07957581831694</v>
+        <v>0.0005550855993843646</v>
       </c>
       <c r="H18">
-        <v>2.038190312591965</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6025396874737226</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.796053406086031</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>4.962467483470434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>5.722872568807418</v>
+      </c>
+      <c r="O18">
+        <v>14.26212688191961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.300654751209777</v>
+        <v>0.3729371237456149</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06235006400465437</v>
+        <v>0.3101678336439164</v>
       </c>
       <c r="E19">
-        <v>4.403983001110817</v>
+        <v>0.06429704173330464</v>
       </c>
       <c r="F19">
-        <v>3.80416161838923</v>
+        <v>17.16347214945262</v>
       </c>
       <c r="G19">
-        <v>1.06502182401745</v>
+        <v>0.0005586246812968909</v>
       </c>
       <c r="H19">
-        <v>2.010827646292014</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5935477225936125</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.747795245864069</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>4.912904571696387</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>5.680836575609362</v>
+      </c>
+      <c r="O19">
+        <v>14.04249260658918</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.402215007680752</v>
+        <v>0.3871581531681301</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.06874729721629436</v>
+        <v>0.3338063399647666</v>
       </c>
       <c r="E20">
-        <v>4.594499417846663</v>
+        <v>0.06751837682911344</v>
       </c>
       <c r="F20">
-        <v>4.035518718884759</v>
+        <v>18.41274831492018</v>
       </c>
       <c r="G20">
-        <v>1.131599130729356</v>
+        <v>0.0005421979497901575</v>
       </c>
       <c r="H20">
-        <v>2.136091797395238</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6357503716472195</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.966508852447902</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>5.137446520183289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>5.870015766701954</v>
+      </c>
+      <c r="O20">
+        <v>15.07328923187015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.754942646774907</v>
+        <v>0.4351351131959404</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09392043917699766</v>
+        <v>0.4497786655592222</v>
       </c>
       <c r="E21">
-        <v>5.257072136934653</v>
+        <v>0.08277298503082875</v>
       </c>
       <c r="F21">
-        <v>4.889489126749368</v>
+        <v>24.35997791132104</v>
       </c>
       <c r="G21">
-        <v>1.377726702408069</v>
+        <v>0.0004694076078187854</v>
       </c>
       <c r="H21">
-        <v>2.601021965451011</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.8366234487930484</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.733397643324622</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>5.922938492804576</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>6.505846402053805</v>
+      </c>
+      <c r="O21">
+        <v>19.98585316149519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.996456611742246</v>
+        <v>0.4351351131959404</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1140300233211136</v>
+        <v>0.4497786655592222</v>
       </c>
       <c r="E22">
-        <v>5.712123910338562</v>
+        <v>0.08277298503082875</v>
       </c>
       <c r="F22">
-        <v>5.522725931428113</v>
+        <v>24.35997791132104</v>
       </c>
       <c r="G22">
-        <v>1.560623171809794</v>
+        <v>0.0004694076078187854</v>
       </c>
       <c r="H22">
-        <v>2.948079153088457</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8366234487930484</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.265934333483472</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>6.46654683919823</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>6.505846402053805</v>
+      </c>
+      <c r="O22">
+        <v>19.98585316149519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.866367043640537</v>
+        <v>0.4498145419795492</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1028904207417085</v>
+        <v>0.5260151710320002</v>
       </c>
       <c r="E23">
-        <v>5.466831945164131</v>
+        <v>0.09202583156536193</v>
       </c>
       <c r="F23">
-        <v>5.176476583126089</v>
+        <v>28.05845082854279</v>
       </c>
       <c r="G23">
-        <v>1.460575971651394</v>
+        <v>0.0004277835060934093</v>
       </c>
       <c r="H23">
-        <v>2.758085709812377</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.9611763311617949</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.97826856289808</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>6.173100161761852</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>6.699669140477909</v>
+      </c>
+      <c r="O23">
+        <v>23.04782013531189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.396599711573458</v>
+        <v>0.3863764963095235</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06838403266316462</v>
+        <v>0.3324333385333205</v>
       </c>
       <c r="E24">
-        <v>4.583963780025385</v>
+        <v>0.06733194970048828</v>
       </c>
       <c r="F24">
-        <v>4.022562732975189</v>
+        <v>18.34047262093407</v>
       </c>
       <c r="G24">
-        <v>1.127869645436022</v>
+        <v>0.0005431360328102996</v>
       </c>
       <c r="H24">
-        <v>2.129068631890149</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6333084490846659</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.954393312546443</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>5.125013889321394</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>5.859626127686511</v>
+      </c>
+      <c r="O24">
+        <v>15.01364559734799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.922960861773106</v>
+        <v>0.3185489263902639</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0416376711620714</v>
+        <v>0.237565543893993</v>
       </c>
       <c r="E25">
-        <v>3.69566142900166</v>
+        <v>0.05432943080036523</v>
       </c>
       <c r="F25">
-        <v>2.997075865023987</v>
+        <v>13.2730527950564</v>
       </c>
       <c r="G25">
-        <v>0.8331040285704603</v>
+        <v>0.00061311419081021</v>
       </c>
       <c r="H25">
-        <v>1.576585879476369</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4622799307114178</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.941392075950205</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>4.08323428092632</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>4.954204993366943</v>
+      </c>
+      <c r="O25">
+        <v>10.83372245849779</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.26902541992078</v>
+        <v>0.2719137746541094</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1857253111755455</v>
+        <v>0.04289194036979183</v>
       </c>
       <c r="E2">
-        <v>0.04728974613873582</v>
+        <v>0.2756040958910404</v>
       </c>
       <c r="F2">
-        <v>10.46606482325637</v>
+        <v>0.5420621849940588</v>
       </c>
       <c r="G2">
-        <v>0.000656527031455916</v>
+        <v>0.0007870986924350977</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3678533825406447</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.677345926796079</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7482615422432204</v>
       </c>
       <c r="N2">
-        <v>4.288064236591595</v>
+        <v>0.7253983934922221</v>
       </c>
       <c r="O2">
-        <v>8.518794527723117</v>
+        <v>1.538971130520935</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2356773118712994</v>
+        <v>0.2377830767769638</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1554439418545428</v>
+        <v>0.03857458487053833</v>
       </c>
       <c r="E3">
-        <v>0.04329014508791218</v>
+        <v>0.2408461814429899</v>
       </c>
       <c r="F3">
-        <v>8.825921444097446</v>
+        <v>0.4975861346363644</v>
       </c>
       <c r="G3">
-        <v>0.0006841353635200692</v>
+        <v>0.0007910421317007179</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3128667258892364</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.467776045659718</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.6475754814028321</v>
       </c>
       <c r="N3">
-        <v>3.836929003758598</v>
+        <v>0.7652185400757308</v>
       </c>
       <c r="O3">
-        <v>7.165746169598947</v>
+        <v>1.439119257556996</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2152931864900438</v>
+        <v>0.2169729142673305</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.138295645163808</v>
+        <v>0.03591348300144404</v>
       </c>
       <c r="E4">
-        <v>0.04108853155296188</v>
+        <v>0.2199908150383365</v>
       </c>
       <c r="F4">
-        <v>7.900209324014071</v>
+        <v>0.4713075899258996</v>
       </c>
       <c r="G4">
-        <v>0.0007006882838007655</v>
+        <v>0.0007935428235643905</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2819182253467005</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.339188777085695</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5862233211552592</v>
       </c>
       <c r="N4">
-        <v>3.56009691549059</v>
+        <v>0.7907890772309205</v>
       </c>
       <c r="O4">
-        <v>6.4017730655587</v>
+        <v>1.381119583507939</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2070077212374315</v>
+        <v>0.2085259348282449</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1315777496819095</v>
+        <v>0.03482633655487177</v>
       </c>
       <c r="E5">
-        <v>0.04024254611752731</v>
+        <v>0.2116018127683219</v>
       </c>
       <c r="F5">
-        <v>7.538649298833576</v>
+        <v>0.4608405321534548</v>
       </c>
       <c r="G5">
-        <v>0.0007073828616197529</v>
+        <v>0.0007945822394315736</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2698514341726366</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.286790910977771</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.5613213959477221</v>
       </c>
       <c r="N5">
-        <v>3.447332324296866</v>
+        <v>0.801483937999123</v>
       </c>
       <c r="O5">
-        <v>6.103300291524675</v>
+        <v>1.358264123233738</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2056331561250033</v>
+        <v>0.2071252359375677</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1304763718241304</v>
+        <v>0.03464564779690704</v>
       </c>
       <c r="E6">
-        <v>0.04010485864704094</v>
+        <v>0.2102151008619018</v>
       </c>
       <c r="F6">
-        <v>7.479445724683671</v>
+        <v>0.4591165916552171</v>
       </c>
       <c r="G6">
-        <v>0.0007084925928036486</v>
+        <v>0.0007947560747956813</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.267876803957364</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.278089874314645</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5571919450203211</v>
       </c>
       <c r="N6">
-        <v>3.428610827881613</v>
+        <v>0.8032761972009332</v>
       </c>
       <c r="O6">
-        <v>6.05442164910778</v>
+        <v>1.354514614877559</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2151813622175922</v>
+        <v>0.2168588648232088</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1382040536350644</v>
+        <v>0.0358988325964873</v>
       </c>
       <c r="E7">
-        <v>0.04107692917449945</v>
+        <v>0.2198772497329955</v>
       </c>
       <c r="F7">
-        <v>7.895275018145981</v>
+        <v>0.4711654712782831</v>
       </c>
       <c r="G7">
-        <v>0.0007007787206118647</v>
+        <v>0.0007935567585520823</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2817534616997079</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.338482136612242</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.5858871055275969</v>
       </c>
       <c r="N7">
-        <v>3.558575936671105</v>
+        <v>0.7909322089931123</v>
       </c>
       <c r="O7">
-        <v>6.397700082485329</v>
+        <v>1.380808256304277</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2575068091880723</v>
+        <v>0.2601130326684853</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1749178571033241</v>
+        <v>0.04140534180229594</v>
       </c>
       <c r="E8">
-        <v>0.04584892334144719</v>
+        <v>0.2635108949541802</v>
       </c>
       <c r="F8">
-        <v>9.880260553455997</v>
+        <v>0.5265023589066899</v>
       </c>
       <c r="G8">
-        <v>0.0006661642584262288</v>
+        <v>0.0007884421549524743</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3481944735420228</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.605055165219056</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7134360526914207</v>
       </c>
       <c r="N8">
-        <v>4.13248070584342</v>
+        <v>0.7388913327601987</v>
       </c>
       <c r="O8">
-        <v>8.035590094027071</v>
+        <v>1.50382282254705</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3413255086066584</v>
+        <v>0.3462614931164296</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2653253305139174</v>
+        <v>0.052130433984658</v>
       </c>
       <c r="E9">
-        <v>0.05814236309032239</v>
+        <v>0.3535410415691942</v>
       </c>
       <c r="F9">
-        <v>14.76845770388053</v>
+        <v>0.6440230747219999</v>
       </c>
       <c r="G9">
-        <v>0.0005915049990705238</v>
+        <v>0.0007790234393592213</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5126979166899304</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.129505525628218</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.9681864224823116</v>
       </c>
       <c r="N9">
-        <v>5.259113965554377</v>
+        <v>0.6460711105981574</v>
       </c>
       <c r="O9">
-        <v>12.0669626145679</v>
+        <v>1.773835144316593</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4035430215420206</v>
+        <v>0.4106136760618568</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3651052546293414</v>
+        <v>0.05997826437015163</v>
       </c>
       <c r="E10">
-        <v>0.07173946869765047</v>
+        <v>0.4233226556657002</v>
       </c>
       <c r="F10">
-        <v>20.0498375780507</v>
+        <v>0.7370964699042872</v>
       </c>
       <c r="G10">
-        <v>0.0005213260562538344</v>
+        <v>0.0007724477561243876</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6910661131534965</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.517373558409048</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.1595364764419</v>
       </c>
       <c r="N10">
-        <v>6.087573303855663</v>
+        <v>0.5839989960226308</v>
       </c>
       <c r="O10">
-        <v>16.42455802389881</v>
+        <v>1.993512181915804</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4320172635535471</v>
+        <v>0.4401780332375864</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4388204443217489</v>
+        <v>0.06354461916176035</v>
       </c>
       <c r="E11">
-        <v>0.08138433966977487</v>
+        <v>0.456080658719813</v>
       </c>
       <c r="F11">
-        <v>23.81319166056335</v>
+        <v>0.7811973159914061</v>
       </c>
       <c r="G11">
-        <v>0.0004757756177564811</v>
+        <v>0.0007695243592213536</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8181735337148268</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.694748729345804</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.247826998114348</v>
       </c>
       <c r="N11">
-        <v>6.46463631905084</v>
+        <v>0.557208240870855</v>
       </c>
       <c r="O11">
-        <v>19.53370451539553</v>
+        <v>2.098976214034053</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4428269586278333</v>
+        <v>0.4514201124622303</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4822348747235026</v>
+        <v>0.0648948413445396</v>
       </c>
       <c r="E12">
-        <v>0.08680397582796928</v>
+        <v>0.4686514045995196</v>
       </c>
       <c r="F12">
-        <v>25.95791011137209</v>
+        <v>0.7981772059283259</v>
       </c>
       <c r="G12">
-        <v>0.000451124640148243</v>
+        <v>0.0007684265199629962</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8904966753354557</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.762082982710638</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.28146921738319</v>
       </c>
       <c r="N12">
-        <v>6.607448666631797</v>
+        <v>0.547282000482415</v>
       </c>
       <c r="O12">
-        <v>21.30795201834192</v>
+        <v>2.139789613688066</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4404976502403031</v>
+        <v>0.4489967701847775</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4713510806998329</v>
+        <v>0.06460405508155986</v>
       </c>
       <c r="E13">
-        <v>0.08546646461356033</v>
+        <v>0.4659363458326951</v>
       </c>
       <c r="F13">
-        <v>25.42575703066461</v>
+        <v>0.7945073906166584</v>
       </c>
       <c r="G13">
-        <v>0.000457160671660328</v>
+        <v>0.0007686625602854065</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8725638803189497</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.747573417334479</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.274213991375547</v>
       </c>
       <c r="N13">
-        <v>6.57669028835403</v>
+        <v>0.5494098794831554</v>
       </c>
       <c r="O13">
-        <v>20.86753015740825</v>
+        <v>2.130959378630706</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4329060254516151</v>
+        <v>0.4411019603889201</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4418486321387718</v>
+        <v>0.06365570685241551</v>
       </c>
       <c r="E14">
-        <v>0.08176939788265614</v>
+        <v>0.4571114125883753</v>
       </c>
       <c r="F14">
-        <v>23.96464412857733</v>
+        <v>0.7825884933638605</v>
       </c>
       <c r="G14">
-        <v>0.0004740058579949935</v>
+        <v>0.0007694338586468946</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8232845774384145</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.700284835815637</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.250590406270561</v>
       </c>
       <c r="N14">
-        <v>6.476385042944003</v>
+        <v>0.5563871521687727</v>
       </c>
       <c r="O14">
-        <v>19.6589316132862</v>
+        <v>2.102315904671372</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4282595438104835</v>
+        <v>0.4362723956970456</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4267346292487133</v>
+        <v>0.06307478754979456</v>
       </c>
       <c r="E15">
-        <v>0.07983782149653251</v>
+        <v>0.4517281341629271</v>
       </c>
       <c r="F15">
-        <v>23.20609568087713</v>
+        <v>0.7753250944381449</v>
       </c>
       <c r="G15">
-        <v>0.0004829160399700214</v>
+        <v>0.0007699074797590294</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7976813544275529</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.671341848148955</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.236148354296475</v>
       </c>
       <c r="N15">
-        <v>6.414948655393175</v>
+        <v>0.5606897684506631</v>
       </c>
       <c r="O15">
-        <v>19.03182159518192</v>
+        <v>2.084887603497492</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4016858187138155</v>
+        <v>0.4086878332008013</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3612813248001032</v>
+        <v>0.05974514170814871</v>
       </c>
       <c r="E16">
-        <v>0.0712270166384279</v>
+        <v>0.4212039330582229</v>
       </c>
       <c r="F16">
-        <v>19.85095507607468</v>
+        <v>0.734252043893278</v>
       </c>
       <c r="G16">
-        <v>0.0005238245570693412</v>
+        <v>0.0007726401251227134</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6843459054984038</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.505803111267369</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.153793994361273</v>
       </c>
       <c r="N16">
-        <v>6.062935127839523</v>
+        <v>0.5857798479766405</v>
       </c>
       <c r="O16">
-        <v>16.26036512219363</v>
+        <v>1.986737953740146</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3854292867134319</v>
+        <v>0.391843366715122</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3307821045842161</v>
+        <v>0.05770174364287328</v>
       </c>
       <c r="E17">
-        <v>0.06710762177975127</v>
+        <v>0.4027518492921018</v>
       </c>
       <c r="F17">
-        <v>18.25350207772345</v>
+        <v>0.7095244487451993</v>
       </c>
       <c r="G17">
-        <v>0.0005442667868033323</v>
+        <v>0.0007743335104105704</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6303700850853744</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.404511172431967</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.103611241011336</v>
       </c>
       <c r="N17">
-        <v>5.847034662043143</v>
+        <v>0.6015496976934287</v>
       </c>
       <c r="O17">
-        <v>14.94187678553882</v>
+        <v>1.92799881880498</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.376094915385309</v>
+        <v>0.38218187734428</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3151890226069014</v>
+        <v>0.05652607436316259</v>
       </c>
       <c r="E18">
-        <v>0.064983198125109</v>
+        <v>0.3922328316062149</v>
       </c>
       <c r="F18">
-        <v>17.42968611546701</v>
+        <v>0.6954658630536557</v>
       </c>
       <c r="G18">
-        <v>0.0005550855993843646</v>
+        <v>0.0007753139302442454</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6025396874737226</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.34633638041467</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.07486266498897</v>
       </c>
       <c r="N18">
-        <v>5.722872568807418</v>
+        <v>0.6107555220237018</v>
       </c>
       <c r="O18">
-        <v>14.26212688191961</v>
+        <v>1.894729095763722</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3729371237456149</v>
+        <v>0.3789151544751803</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3101678336439164</v>
+        <v>0.05612794376701657</v>
       </c>
       <c r="E19">
-        <v>0.06429704173330464</v>
+        <v>0.3886868536865222</v>
       </c>
       <c r="F19">
-        <v>17.16347214945262</v>
+        <v>0.6907332700214823</v>
       </c>
       <c r="G19">
-        <v>0.0005586246812968909</v>
+        <v>0.0007756470047594906</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5935477225936125</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.326653172104642</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.065147819465082</v>
       </c>
       <c r="N19">
-        <v>5.680836575609362</v>
+        <v>0.6138953960386324</v>
       </c>
       <c r="O19">
-        <v>14.04249260658918</v>
+        <v>1.883550706606371</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3871581531681301</v>
+        <v>0.3936336593261558</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3338063399647666</v>
+        <v>0.05791930246240184</v>
       </c>
       <c r="E20">
-        <v>0.06751837682911344</v>
+        <v>0.4047062220821402</v>
       </c>
       <c r="F20">
-        <v>18.41274831492018</v>
+        <v>0.7121395764232545</v>
       </c>
       <c r="G20">
-        <v>0.0005421979497901575</v>
+        <v>0.0007741525852896036</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6357503716472195</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.415284783689884</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.108941150153036</v>
       </c>
       <c r="N20">
-        <v>5.870015766701954</v>
+        <v>0.5998568780436138</v>
       </c>
       <c r="O20">
-        <v>15.07328923187015</v>
+        <v>1.934197783842734</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4351351131959404</v>
+        <v>0.443419548875994</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4497786655592222</v>
+        <v>0.0639342652103565</v>
       </c>
       <c r="E21">
-        <v>0.08277298503082875</v>
+        <v>0.4596988343430866</v>
       </c>
       <c r="F21">
-        <v>24.35997791132104</v>
+        <v>0.786081545026903</v>
       </c>
       <c r="G21">
-        <v>0.0004694076078187854</v>
+        <v>0.0007692070651196461</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8366234487930484</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.714169860396453</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.257523318410165</v>
       </c>
       <c r="N21">
-        <v>6.505846402053805</v>
+        <v>0.5543317282750468</v>
       </c>
       <c r="O21">
-        <v>19.98585316149519</v>
+        <v>2.110704723114139</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4351351131959404</v>
+        <v>0.4762322361090128</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4497786655592222</v>
+        <v>0.06786389497635525</v>
       </c>
       <c r="E22">
-        <v>0.08277298503082875</v>
+        <v>0.4966179648174034</v>
       </c>
       <c r="F22">
-        <v>24.35997791132104</v>
+        <v>0.8360519749353301</v>
       </c>
       <c r="G22">
-        <v>0.0004694076078187854</v>
+        <v>0.0007660281354853934</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8366234487930484</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.91049376769061</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.355861356512875</v>
       </c>
       <c r="N22">
-        <v>6.505846402053805</v>
+        <v>0.5258595844723626</v>
       </c>
       <c r="O22">
-        <v>19.98585316149519</v>
+        <v>2.2312132006208</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4498145419795492</v>
+        <v>0.4586926259782587</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5260151710320002</v>
+        <v>0.06576662722881821</v>
       </c>
       <c r="E23">
-        <v>0.09202583156536193</v>
+        <v>0.4768168681513103</v>
       </c>
       <c r="F23">
-        <v>28.05845082854279</v>
+        <v>0.8092219581263436</v>
       </c>
       <c r="G23">
-        <v>0.0004277835060934093</v>
+        <v>0.0007677201195194283</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9611763311617949</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.805610517953056</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.303253405351057</v>
       </c>
       <c r="N23">
-        <v>6.699669140477909</v>
+        <v>0.5409346738859266</v>
       </c>
       <c r="O23">
-        <v>23.04782013531189</v>
+        <v>2.166395778897623</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3863764963095235</v>
+        <v>0.3928241979557612</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3324333385333205</v>
+        <v>0.05782094691851114</v>
       </c>
       <c r="E24">
-        <v>0.06733194970048828</v>
+        <v>0.4038223734019724</v>
       </c>
       <c r="F24">
-        <v>18.34047262093407</v>
+        <v>0.7109567881777252</v>
       </c>
       <c r="G24">
-        <v>0.0005431360328102996</v>
+        <v>0.000774234360113589</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6333084490846659</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.410413851748871</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.106531182236871</v>
       </c>
       <c r="N24">
-        <v>5.859626127686511</v>
+        <v>0.6006217680235864</v>
       </c>
       <c r="O24">
-        <v>15.01364559734799</v>
+        <v>1.931393679821696</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3185489263902639</v>
+        <v>0.3227890231289336</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.237565543893993</v>
+        <v>0.04923558903904279</v>
       </c>
       <c r="E25">
-        <v>0.05432943080036523</v>
+        <v>0.3286174447759507</v>
       </c>
       <c r="F25">
-        <v>13.2730527950564</v>
+        <v>0.6111435680283108</v>
       </c>
       <c r="G25">
-        <v>0.00061311419081021</v>
+        <v>0.0007815088510059274</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4622799307114178</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.987295998403738</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.8986398037198384</v>
       </c>
       <c r="N25">
-        <v>4.954204993366943</v>
+        <v>0.6701440270317871</v>
       </c>
       <c r="O25">
-        <v>10.83372245849779</v>
+        <v>1.697336910447405</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2719137746541094</v>
+        <v>0.1424226571106146</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04289194036979183</v>
+        <v>0.02057710033479765</v>
       </c>
       <c r="E2">
-        <v>0.2756040958910404</v>
+        <v>0.1500079334831597</v>
       </c>
       <c r="F2">
-        <v>0.5420621849940588</v>
+        <v>0.6474669960146215</v>
       </c>
       <c r="G2">
-        <v>0.0007870986924350977</v>
+        <v>0.002410213022355554</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.677345926796079</v>
+        <v>0.504451890541219</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7482615422432204</v>
+        <v>0.2594698726378297</v>
       </c>
       <c r="N2">
-        <v>0.7253983934922221</v>
+        <v>1.420477081238527</v>
       </c>
       <c r="O2">
-        <v>1.538971130520935</v>
+        <v>2.172609407967229</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2377830767769638</v>
+        <v>0.1329384921194645</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03857458487053833</v>
+        <v>0.01909246799107223</v>
       </c>
       <c r="E3">
-        <v>0.2408461814429899</v>
+        <v>0.1417913037927434</v>
       </c>
       <c r="F3">
-        <v>0.4975861346363644</v>
+        <v>0.6410921036915411</v>
       </c>
       <c r="G3">
-        <v>0.0007910421317007179</v>
+        <v>0.002412831595020937</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.467776045659718</v>
+        <v>0.4399034382151399</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6475754814028321</v>
+        <v>0.2310841556912564</v>
       </c>
       <c r="N3">
-        <v>0.7652185400757308</v>
+        <v>1.437070428696972</v>
       </c>
       <c r="O3">
-        <v>1.439119257556996</v>
+        <v>2.16501735059515</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2169729142673305</v>
+        <v>0.1271846491612649</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03591348300144404</v>
+        <v>0.0181732226077429</v>
       </c>
       <c r="E4">
-        <v>0.2199908150383365</v>
+        <v>0.1368639139511032</v>
       </c>
       <c r="F4">
-        <v>0.4713075899258996</v>
+        <v>0.637616863124606</v>
       </c>
       <c r="G4">
-        <v>0.0007935428235643905</v>
+        <v>0.002414525806350379</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.339188777085695</v>
+        <v>0.4001375809899912</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5862233211552592</v>
+        <v>0.2137145984690889</v>
       </c>
       <c r="N4">
-        <v>0.7907890772309205</v>
+        <v>1.447799345253058</v>
       </c>
       <c r="O4">
-        <v>1.381119583507939</v>
+        <v>2.161794295690783</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2085259348282449</v>
+        <v>0.1248575453243177</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03482633655487177</v>
+        <v>0.01779671434477592</v>
       </c>
       <c r="E5">
-        <v>0.2116018127683219</v>
+        <v>0.1348853227037594</v>
       </c>
       <c r="F5">
-        <v>0.4608405321534548</v>
+        <v>0.6363109712809418</v>
       </c>
       <c r="G5">
-        <v>0.0007945822394315736</v>
+        <v>0.002415238002186849</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.286790910977771</v>
+        <v>0.3838999374272021</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5613213959477221</v>
+        <v>0.2066512616597294</v>
       </c>
       <c r="N5">
-        <v>0.801483937999123</v>
+        <v>1.452307372438872</v>
       </c>
       <c r="O5">
-        <v>1.358264123233738</v>
+        <v>2.160842219427224</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2071252359375677</v>
+        <v>0.1244722013834405</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03464564779690704</v>
+        <v>0.01773408081660222</v>
       </c>
       <c r="E6">
-        <v>0.2102151008619018</v>
+        <v>0.1345585458441647</v>
       </c>
       <c r="F6">
-        <v>0.4591165916552171</v>
+        <v>0.6361007881133816</v>
       </c>
       <c r="G6">
-        <v>0.0007947560747956813</v>
+        <v>0.002415357579604339</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.278089874314645</v>
+        <v>0.3812017318617222</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5571919450203211</v>
+        <v>0.2054792988486938</v>
       </c>
       <c r="N6">
-        <v>0.8032761972009332</v>
+        <v>1.45306413494972</v>
       </c>
       <c r="O6">
-        <v>1.354514614877559</v>
+        <v>2.160705941231953</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2168588648232088</v>
+        <v>0.1271531934079349</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0358988325964873</v>
+        <v>0.01816815258331417</v>
       </c>
       <c r="E7">
-        <v>0.2198772497329955</v>
+        <v>0.1368371113965736</v>
       </c>
       <c r="F7">
-        <v>0.4711654712782831</v>
+        <v>0.6375988049370491</v>
       </c>
       <c r="G7">
-        <v>0.0007935567585520823</v>
+        <v>0.002414535322981083</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.338482136612242</v>
+        <v>0.3999187260968142</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5858871055275969</v>
+        <v>0.2136192795584648</v>
       </c>
       <c r="N7">
-        <v>0.7909322089931123</v>
+        <v>1.447859591823924</v>
       </c>
       <c r="O7">
-        <v>1.380808256304277</v>
+        <v>2.161779993091557</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2601130326684853</v>
+        <v>0.139138193429531</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04140534180229594</v>
+        <v>0.02006680464755561</v>
       </c>
       <c r="E8">
-        <v>0.2635108949541802</v>
+        <v>0.1471502823457698</v>
       </c>
       <c r="F8">
-        <v>0.5265023589066899</v>
+        <v>0.6451777697305303</v>
       </c>
       <c r="G8">
-        <v>0.0007884421549524743</v>
+        <v>0.002411098014067097</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.605055165219056</v>
+        <v>0.4822235399192607</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7134360526914207</v>
+        <v>0.2496701217400243</v>
       </c>
       <c r="N8">
-        <v>0.7388913327601987</v>
+        <v>1.426086271726062</v>
       </c>
       <c r="O8">
-        <v>1.50382282254705</v>
+        <v>2.169692869728863</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3462614931164296</v>
+        <v>0.1631860419953313</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.052130433984658</v>
+        <v>0.02372836676921963</v>
       </c>
       <c r="E9">
-        <v>0.3535410415691942</v>
+        <v>0.1683192111666898</v>
       </c>
       <c r="F9">
-        <v>0.6440230747219999</v>
+        <v>0.6635287709480622</v>
       </c>
       <c r="G9">
-        <v>0.0007790234393592213</v>
+        <v>0.002405039984598325</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.129505525628218</v>
+        <v>0.6425470573905727</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9681864224823116</v>
+        <v>0.3208421747779653</v>
       </c>
       <c r="N9">
-        <v>0.6460711105981574</v>
+        <v>1.387677852510821</v>
       </c>
       <c r="O9">
-        <v>1.773835144316593</v>
+        <v>2.196645093461228</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4106136760618568</v>
+        <v>0.1811803485757792</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05997826437015163</v>
+        <v>0.02638008553910254</v>
       </c>
       <c r="E10">
-        <v>0.4233226556657002</v>
+        <v>0.1844653212161305</v>
       </c>
       <c r="F10">
-        <v>0.7370964699042872</v>
+        <v>0.6791484555532605</v>
       </c>
       <c r="G10">
-        <v>0.0007724477561243876</v>
+        <v>0.002401001031881985</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.517373558409048</v>
+        <v>0.7596626024628108</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.1595364764419</v>
+        <v>0.3734353091154006</v>
       </c>
       <c r="N10">
-        <v>0.5839989960226308</v>
+        <v>1.362073174822497</v>
       </c>
       <c r="O10">
-        <v>1.993512181915804</v>
+        <v>2.223453544629876</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4401780332375864</v>
+        <v>0.1894361076589917</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06354461916176035</v>
+        <v>0.02757791570711277</v>
       </c>
       <c r="E11">
-        <v>0.456080658719813</v>
+        <v>0.1919432563060823</v>
       </c>
       <c r="F11">
-        <v>0.7811973159914061</v>
+        <v>0.6867207250180201</v>
       </c>
       <c r="G11">
-        <v>0.0007695243592213536</v>
+        <v>0.002399252149669942</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.694748729345804</v>
+        <v>0.8127919408509854</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.247826998114348</v>
+        <v>0.3974300996903821</v>
       </c>
       <c r="N11">
-        <v>0.557208240870855</v>
+        <v>1.350992421439715</v>
       </c>
       <c r="O11">
-        <v>2.098976214034053</v>
+        <v>2.237178868670583</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4514201124622303</v>
+        <v>0.1925722799148843</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0648948413445396</v>
+        <v>0.0280302686957512</v>
       </c>
       <c r="E12">
-        <v>0.4686514045995196</v>
+        <v>0.1947943518120141</v>
       </c>
       <c r="F12">
-        <v>0.7981772059283259</v>
+        <v>0.6896554112272355</v>
       </c>
       <c r="G12">
-        <v>0.0007684265199629962</v>
+        <v>0.002398602546081413</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.762082982710638</v>
+        <v>0.8328889569566797</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.28146921738319</v>
+        <v>0.4065264780484483</v>
       </c>
       <c r="N12">
-        <v>0.547282000482415</v>
+        <v>1.346877983134483</v>
       </c>
       <c r="O12">
-        <v>2.139789613688066</v>
+        <v>2.242596840798569</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4489967701847775</v>
+        <v>0.191896411856959</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06460405508155986</v>
+        <v>0.02793290188909481</v>
       </c>
       <c r="E13">
-        <v>0.4659363458326951</v>
+        <v>0.1941794523450469</v>
       </c>
       <c r="F13">
-        <v>0.7945073906166584</v>
+        <v>0.6890203821758973</v>
       </c>
       <c r="G13">
-        <v>0.0007686625602854065</v>
+        <v>0.002398741887696281</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.747573417334479</v>
+        <v>0.8285616915073604</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.274213991375547</v>
+        <v>0.404566961961919</v>
       </c>
       <c r="N13">
-        <v>0.5494098794831554</v>
+        <v>1.34776047048965</v>
       </c>
       <c r="O13">
-        <v>2.130959378630706</v>
+        <v>2.241420169672779</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4411019603889201</v>
+        <v>0.1896939251443115</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.06365570685241551</v>
+        <v>0.02761515603486231</v>
       </c>
       <c r="E14">
-        <v>0.4571114125883753</v>
+        <v>0.1921774281932187</v>
       </c>
       <c r="F14">
-        <v>0.7825884933638605</v>
+        <v>0.6869608153748601</v>
       </c>
       <c r="G14">
-        <v>0.0007694338586468946</v>
+        <v>0.002399198452956552</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.700284835815637</v>
+        <v>0.8144457779284551</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.250590406270561</v>
+        <v>0.3981782622479244</v>
       </c>
       <c r="N14">
-        <v>0.5563871521687727</v>
+        <v>1.350652288237256</v>
       </c>
       <c r="O14">
-        <v>2.102315904671372</v>
+        <v>2.237620186841212</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4362723956970456</v>
+        <v>0.1883461218020841</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.06307478754979456</v>
+        <v>0.02742036541477688</v>
       </c>
       <c r="E15">
-        <v>0.4517281341629271</v>
+        <v>0.190953659462906</v>
       </c>
       <c r="F15">
-        <v>0.7753250944381449</v>
+        <v>0.6857080300183185</v>
       </c>
       <c r="G15">
-        <v>0.0007699074797590294</v>
+        <v>0.002399479759433872</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.671341848148955</v>
+        <v>0.8057964973289131</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.236148354296475</v>
+        <v>0.3942663114254827</v>
       </c>
       <c r="N15">
-        <v>0.5606897684506631</v>
+        <v>1.352434239496617</v>
       </c>
       <c r="O15">
-        <v>2.084887603497492</v>
+        <v>2.23532131597446</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4086878332008013</v>
+        <v>0.180642209782377</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05974514170814871</v>
+        <v>0.02630163241595795</v>
       </c>
       <c r="E16">
-        <v>0.4212039330582229</v>
+        <v>0.183979317166461</v>
       </c>
       <c r="F16">
-        <v>0.734252043893278</v>
+        <v>0.6786629922658847</v>
       </c>
       <c r="G16">
-        <v>0.0007726401251227134</v>
+        <v>0.002401117100249322</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.505803111267369</v>
+        <v>0.7561874502769683</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.153793994361273</v>
+        <v>0.3718686015113875</v>
       </c>
       <c r="N16">
-        <v>0.5857798479766405</v>
+        <v>1.362808742951126</v>
       </c>
       <c r="O16">
-        <v>1.986737953740146</v>
+        <v>2.222587390974297</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.391843366715122</v>
+        <v>0.1759339258701829</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05770174364287328</v>
+        <v>0.02561314447977736</v>
       </c>
       <c r="E17">
-        <v>0.4027518492921018</v>
+        <v>0.1797350164340727</v>
       </c>
       <c r="F17">
-        <v>0.7095244487451993</v>
+        <v>0.674460724179454</v>
       </c>
       <c r="G17">
-        <v>0.0007743335104105704</v>
+        <v>0.002402144169084951</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.404511172431967</v>
+        <v>0.72571568926071</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.103611241011336</v>
+        <v>0.3581462510880655</v>
       </c>
       <c r="N17">
-        <v>0.6015496976934287</v>
+        <v>1.369318426135266</v>
       </c>
       <c r="O17">
-        <v>1.92799881880498</v>
+        <v>2.215167754022332</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.38218187734428</v>
+        <v>0.1732324504798157</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05652607436316259</v>
+        <v>0.02521635051903104</v>
       </c>
       <c r="E18">
-        <v>0.3922328316062149</v>
+        <v>0.1773063100580359</v>
       </c>
       <c r="F18">
-        <v>0.6954658630536557</v>
+        <v>0.6720876214495064</v>
       </c>
       <c r="G18">
-        <v>0.0007753139302442454</v>
+        <v>0.002402743241440729</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.34633638041467</v>
+        <v>0.7081753367175452</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.07486266498897</v>
+        <v>0.3502600972068848</v>
       </c>
       <c r="N18">
-        <v>0.6107555220237018</v>
+        <v>1.373115982277847</v>
       </c>
       <c r="O18">
-        <v>1.894729095763722</v>
+        <v>2.211044159966434</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3789151544751803</v>
+        <v>0.1723189171863453</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05612794376701657</v>
+        <v>0.02508186728476858</v>
       </c>
       <c r="E19">
-        <v>0.3886868536865222</v>
+        <v>0.1764861319238449</v>
       </c>
       <c r="F19">
-        <v>0.6907332700214823</v>
+        <v>0.6712916715064381</v>
       </c>
       <c r="G19">
-        <v>0.0007756470047594906</v>
+        <v>0.002402947509398596</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.326653172104642</v>
+        <v>0.7022341273839174</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.065147819465082</v>
+        <v>0.3475911103978007</v>
       </c>
       <c r="N19">
-        <v>0.6138953960386324</v>
+        <v>1.37441093163377</v>
       </c>
       <c r="O19">
-        <v>1.883550706606371</v>
+        <v>2.209672696971126</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3936336593261558</v>
+        <v>0.1764344484342217</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05791930246240184</v>
+        <v>0.02568651753814777</v>
       </c>
       <c r="E20">
-        <v>0.4047062220821402</v>
+        <v>0.1801855337263021</v>
       </c>
       <c r="F20">
-        <v>0.7121395764232545</v>
+        <v>0.6749035153448659</v>
       </c>
       <c r="G20">
-        <v>0.0007741525852896036</v>
+        <v>0.002402033974090301</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.415284783689884</v>
+        <v>0.7289608941373729</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.108941150153036</v>
+        <v>0.3596063376646441</v>
       </c>
       <c r="N20">
-        <v>0.5998568780436138</v>
+        <v>1.368619936288432</v>
       </c>
       <c r="O20">
-        <v>1.934197783842734</v>
+        <v>2.215942681706821</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.443419548875994</v>
+        <v>0.1903405817485151</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0639342652103565</v>
+        <v>0.0277085195214184</v>
       </c>
       <c r="E21">
-        <v>0.4596988343430866</v>
+        <v>0.192764943773291</v>
       </c>
       <c r="F21">
-        <v>0.786081545026903</v>
+        <v>0.6875639345570619</v>
       </c>
       <c r="G21">
-        <v>0.0007692070651196461</v>
+        <v>0.002399064005712689</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.714169860396453</v>
+        <v>0.8185925646142209</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.257523318410165</v>
+        <v>0.4000545047187956</v>
       </c>
       <c r="N21">
-        <v>0.5543317282750468</v>
+        <v>1.349800675969398</v>
       </c>
       <c r="O21">
-        <v>2.110704723114139</v>
+        <v>2.238730346106081</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4762322361090128</v>
+        <v>0.199486638753001</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.06786389497635525</v>
+        <v>0.02902277991262281</v>
       </c>
       <c r="E22">
-        <v>0.4966179648174034</v>
+        <v>0.2010992940663172</v>
       </c>
       <c r="F22">
-        <v>0.8360519749353301</v>
+        <v>0.6962301798583468</v>
       </c>
       <c r="G22">
-        <v>0.0007660281354853934</v>
+        <v>0.002397196724444374</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.91049376769061</v>
+        <v>0.877043976479456</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.355861356512875</v>
+        <v>0.4265484357126752</v>
       </c>
       <c r="N22">
-        <v>0.5258595844723626</v>
+        <v>1.337976881224243</v>
       </c>
       <c r="O22">
-        <v>2.2312132006208</v>
+        <v>2.254908805037843</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4586926259782587</v>
+        <v>0.1946000052834478</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.06576662722881821</v>
+        <v>0.02832200437936194</v>
       </c>
       <c r="E23">
-        <v>0.4768168681513103</v>
+        <v>0.196640677461005</v>
       </c>
       <c r="F23">
-        <v>0.8092219581263436</v>
+        <v>0.6915689447868942</v>
       </c>
       <c r="G23">
-        <v>0.0007677201195194283</v>
+        <v>0.002398186597828187</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.805610517953056</v>
+        <v>0.8458593257980169</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.303253405351057</v>
+        <v>0.412402747406972</v>
       </c>
       <c r="N23">
-        <v>0.5409346738859266</v>
+        <v>1.344243912085746</v>
       </c>
       <c r="O23">
-        <v>2.166395778897623</v>
+        <v>2.24615628606486</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3928241979557612</v>
+        <v>0.176208145412474</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05782094691851114</v>
+        <v>0.02565334860749857</v>
       </c>
       <c r="E24">
-        <v>0.4038223734019724</v>
+        <v>0.1799818193733245</v>
       </c>
       <c r="F24">
-        <v>0.7109567881777252</v>
+        <v>0.6747031960308192</v>
       </c>
       <c r="G24">
-        <v>0.000774234360113589</v>
+        <v>0.002402083766291737</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.410413851748871</v>
+        <v>0.7274938046491286</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.106531182236871</v>
+        <v>0.3589462231588882</v>
       </c>
       <c r="N24">
-        <v>0.6006217680235864</v>
+        <v>1.368935552064606</v>
       </c>
       <c r="O24">
-        <v>1.931393679821696</v>
+        <v>2.215591894439655</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3227890231289336</v>
+        <v>0.1566227105279552</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04923558903904279</v>
+        <v>0.02274450670763883</v>
       </c>
       <c r="E25">
-        <v>0.3286174447759507</v>
+        <v>0.1624895169464082</v>
       </c>
       <c r="F25">
-        <v>0.6111435680283108</v>
+        <v>0.6581897739990552</v>
       </c>
       <c r="G25">
-        <v>0.0007815088510059274</v>
+        <v>0.002406606209473726</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.987295998403738</v>
+        <v>0.5992923747097905</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8986398037198384</v>
+        <v>0.3015359413704672</v>
       </c>
       <c r="N25">
-        <v>0.6701440270317871</v>
+        <v>1.39760926594735</v>
       </c>
       <c r="O25">
-        <v>1.697336910447405</v>
+        <v>2.188125926967984</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424226571106146</v>
+        <v>0.2719137746542373</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02057710033479765</v>
+        <v>0.04289194036979183</v>
       </c>
       <c r="E2">
-        <v>0.1500079334831597</v>
+        <v>0.2756040958910617</v>
       </c>
       <c r="F2">
-        <v>0.6474669960146215</v>
+        <v>0.5420621849940517</v>
       </c>
       <c r="G2">
-        <v>0.002410213022355554</v>
+        <v>0.0007870986924349224</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.504451890541219</v>
+        <v>1.677345926795937</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2594698726378297</v>
+        <v>0.7482615422432204</v>
       </c>
       <c r="N2">
-        <v>1.420477081238527</v>
+        <v>0.7253983934922665</v>
       </c>
       <c r="O2">
-        <v>2.172609407967229</v>
+        <v>1.538971130520906</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329384921194645</v>
+        <v>0.2377830767768359</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01909246799107223</v>
+        <v>0.03857458487054544</v>
       </c>
       <c r="E3">
-        <v>0.1417913037927434</v>
+        <v>0.240846181442997</v>
       </c>
       <c r="F3">
-        <v>0.6410921036915411</v>
+        <v>0.497586134636343</v>
       </c>
       <c r="G3">
-        <v>0.002412831595020937</v>
+        <v>0.0007910421316792055</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4399034382151399</v>
+        <v>1.467776045659718</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2310841556912564</v>
+        <v>0.6475754814028321</v>
       </c>
       <c r="N3">
-        <v>1.437070428696972</v>
+        <v>0.7652185400757094</v>
       </c>
       <c r="O3">
-        <v>2.16501735059515</v>
+        <v>1.439119257556996</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271846491612649</v>
+        <v>0.2169729142672452</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0181732226077429</v>
+        <v>0.03591348300165009</v>
       </c>
       <c r="E4">
-        <v>0.1368639139511032</v>
+        <v>0.2199908150383152</v>
       </c>
       <c r="F4">
-        <v>0.637616863124606</v>
+        <v>0.4713075899258925</v>
       </c>
       <c r="G4">
-        <v>0.002414525806350379</v>
+        <v>0.0007935428235653887</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4001375809899912</v>
+        <v>1.339188777085752</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2137145984690889</v>
+        <v>0.5862233211552592</v>
       </c>
       <c r="N4">
-        <v>1.447799345253058</v>
+        <v>0.7907890772308708</v>
       </c>
       <c r="O4">
-        <v>2.161794295690783</v>
+        <v>1.381119583507939</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1248575453243177</v>
+        <v>0.2085259348282449</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01779671434477592</v>
+        <v>0.03482633655499257</v>
       </c>
       <c r="E5">
-        <v>0.1348853227037594</v>
+        <v>0.211601812768329</v>
       </c>
       <c r="F5">
-        <v>0.6363109712809418</v>
+        <v>0.4608405321534619</v>
       </c>
       <c r="G5">
-        <v>0.002415238002186849</v>
+        <v>0.0007945822394108705</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3838999374272021</v>
+        <v>1.286790910977913</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2066512616597294</v>
+        <v>0.5613213959477363</v>
       </c>
       <c r="N5">
-        <v>1.452307372438872</v>
+        <v>0.8014839379991141</v>
       </c>
       <c r="O5">
-        <v>2.160842219427224</v>
+        <v>1.358264123233738</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1244722013834405</v>
+        <v>0.2071252359375961</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01773408081660222</v>
+        <v>0.03464564779702783</v>
       </c>
       <c r="E6">
-        <v>0.1345585458441647</v>
+        <v>0.2102151008619373</v>
       </c>
       <c r="F6">
-        <v>0.6361007881133816</v>
+        <v>0.4591165916552029</v>
       </c>
       <c r="G6">
-        <v>0.002415357579604339</v>
+        <v>0.0007947560747972954</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3812017318617222</v>
+        <v>1.278089874314674</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2054792988486938</v>
+        <v>0.5571919450203353</v>
       </c>
       <c r="N6">
-        <v>1.45306413494972</v>
+        <v>0.8032761972008693</v>
       </c>
       <c r="O6">
-        <v>2.160705941231953</v>
+        <v>1.354514614877615</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1271531934079349</v>
+        <v>0.216858864823223</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01816815258331417</v>
+        <v>0.03589883259654414</v>
       </c>
       <c r="E7">
-        <v>0.1368371113965736</v>
+        <v>0.2198772497330097</v>
       </c>
       <c r="F7">
-        <v>0.6375988049370491</v>
+        <v>0.4711654712782618</v>
       </c>
       <c r="G7">
-        <v>0.002414535322981083</v>
+        <v>0.0007935567584736979</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3999187260968142</v>
+        <v>1.338482136612214</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2136192795584648</v>
+        <v>0.5858871055275827</v>
       </c>
       <c r="N7">
-        <v>1.447859591823924</v>
+        <v>0.7909322089931639</v>
       </c>
       <c r="O7">
-        <v>2.161779993091557</v>
+        <v>1.380808256304221</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.139138193429531</v>
+        <v>0.2601130326684711</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02006680464755561</v>
+        <v>0.04140534180201882</v>
       </c>
       <c r="E8">
-        <v>0.1471502823457698</v>
+        <v>0.2635108949541873</v>
       </c>
       <c r="F8">
-        <v>0.6451777697305303</v>
+        <v>0.5265023589066971</v>
       </c>
       <c r="G8">
-        <v>0.002411098014067097</v>
+        <v>0.0007884421550050999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4822235399192607</v>
+        <v>1.605055165219056</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2496701217400243</v>
+        <v>0.7134360526914136</v>
       </c>
       <c r="N8">
-        <v>1.426086271726062</v>
+        <v>0.7388913327601951</v>
       </c>
       <c r="O8">
-        <v>2.169692869728863</v>
+        <v>1.503822822546908</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1631860419953313</v>
+        <v>0.3462614931164296</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02372836676921963</v>
+        <v>0.05213043398460826</v>
       </c>
       <c r="E9">
-        <v>0.1683192111666898</v>
+        <v>0.3535410415691729</v>
       </c>
       <c r="F9">
-        <v>0.6635287709480622</v>
+        <v>0.6440230747219857</v>
       </c>
       <c r="G9">
-        <v>0.002405039984598325</v>
+        <v>0.00077902343938597</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6425470573905727</v>
+        <v>2.12950552562836</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3208421747779653</v>
+        <v>0.9681864224822974</v>
       </c>
       <c r="N9">
-        <v>1.387677852510821</v>
+        <v>0.6460711105981503</v>
       </c>
       <c r="O9">
-        <v>2.196645093461228</v>
+        <v>1.773835144316678</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1811803485757792</v>
+        <v>0.4106136760617431</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02638008553910254</v>
+        <v>0.05997826437027243</v>
       </c>
       <c r="E10">
-        <v>0.1844653212161305</v>
+        <v>0.4233226556657286</v>
       </c>
       <c r="F10">
-        <v>0.6791484555532605</v>
+        <v>0.7370964699042872</v>
       </c>
       <c r="G10">
-        <v>0.002401001031881985</v>
+        <v>0.0007724477561540409</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7596626024628108</v>
+        <v>2.517373558409076</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3734353091154006</v>
+        <v>1.1595364764419</v>
       </c>
       <c r="N10">
-        <v>1.362073174822497</v>
+        <v>0.5839989960226806</v>
       </c>
       <c r="O10">
-        <v>2.223453544629876</v>
+        <v>1.993512181915804</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1894361076589917</v>
+        <v>0.4401780332375864</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02757791570711277</v>
+        <v>0.06354461916165377</v>
       </c>
       <c r="E11">
-        <v>0.1919432563060823</v>
+        <v>0.4560806587197916</v>
       </c>
       <c r="F11">
-        <v>0.6867207250180201</v>
+        <v>0.7811973159914203</v>
       </c>
       <c r="G11">
-        <v>0.002399252149669942</v>
+        <v>0.0007695243591931849</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8127919408509854</v>
+        <v>2.694748729345832</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3974300996903821</v>
+        <v>1.247826998114334</v>
       </c>
       <c r="N11">
-        <v>1.350992421439715</v>
+        <v>0.557208240870855</v>
       </c>
       <c r="O11">
-        <v>2.237178868670583</v>
+        <v>2.098976214034053</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1925722799148843</v>
+        <v>0.4514201124623725</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0280302686957512</v>
+        <v>0.06489484134447565</v>
       </c>
       <c r="E12">
-        <v>0.1947943518120141</v>
+        <v>0.4686514045995338</v>
       </c>
       <c r="F12">
-        <v>0.6896554112272355</v>
+        <v>0.7981772059283259</v>
       </c>
       <c r="G12">
-        <v>0.002398602546081413</v>
+        <v>0.0007684265199915844</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8328889569566797</v>
+        <v>2.762082982710609</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4065264780484483</v>
+        <v>1.281469217383176</v>
       </c>
       <c r="N12">
-        <v>1.346877983134483</v>
+        <v>0.5472820004824062</v>
       </c>
       <c r="O12">
-        <v>2.242596840798569</v>
+        <v>2.139789613688038</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.191896411856959</v>
+        <v>0.4489967701846496</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02793290188909481</v>
+        <v>0.06460405508154565</v>
       </c>
       <c r="E13">
-        <v>0.1941794523450469</v>
+        <v>0.4659363458326951</v>
       </c>
       <c r="F13">
-        <v>0.6890203821758973</v>
+        <v>0.7945073906166726</v>
       </c>
       <c r="G13">
-        <v>0.002398741887696281</v>
+        <v>0.0007686625603130013</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8285616915073604</v>
+        <v>2.747573417334451</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.404566961961919</v>
+        <v>1.274213991375532</v>
       </c>
       <c r="N13">
-        <v>1.34776047048965</v>
+        <v>0.549409879483143</v>
       </c>
       <c r="O13">
-        <v>2.241420169672779</v>
+        <v>2.130959378630706</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1896939251443115</v>
+        <v>0.4411019603890054</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02761515603486231</v>
+        <v>0.06365570685212418</v>
       </c>
       <c r="E14">
-        <v>0.1921774281932187</v>
+        <v>0.4571114125883753</v>
       </c>
       <c r="F14">
-        <v>0.6869608153748601</v>
+        <v>0.7825884933638321</v>
       </c>
       <c r="G14">
-        <v>0.002399198452956552</v>
+        <v>0.000769433858675411</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8144457779284551</v>
+        <v>2.700284835815694</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3981782622479244</v>
+        <v>1.250590406270547</v>
       </c>
       <c r="N14">
-        <v>1.350652288237256</v>
+        <v>0.5563871521687727</v>
       </c>
       <c r="O14">
-        <v>2.237620186841212</v>
+        <v>2.102315904671343</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1883461218020841</v>
+        <v>0.436272395696804</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02742036541477688</v>
+        <v>0.06307478754961693</v>
       </c>
       <c r="E15">
-        <v>0.190953659462906</v>
+        <v>0.4517281341629058</v>
       </c>
       <c r="F15">
-        <v>0.6857080300183185</v>
+        <v>0.7753250944381449</v>
       </c>
       <c r="G15">
-        <v>0.002399479759433872</v>
+        <v>0.0007699074798165551</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8057964973289131</v>
+        <v>2.671341848149126</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3942663114254827</v>
+        <v>1.236148354296461</v>
       </c>
       <c r="N15">
-        <v>1.352434239496617</v>
+        <v>0.5606897684506684</v>
       </c>
       <c r="O15">
-        <v>2.23532131597446</v>
+        <v>2.084887603497521</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.180642209782377</v>
+        <v>0.4086878332008155</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02630163241595795</v>
+        <v>0.05974514170826239</v>
       </c>
       <c r="E16">
-        <v>0.183979317166461</v>
+        <v>0.4212039330581874</v>
       </c>
       <c r="F16">
-        <v>0.6786629922658847</v>
+        <v>0.734252043893278</v>
       </c>
       <c r="G16">
-        <v>0.002401117100249322</v>
+        <v>0.000772640125123648</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7561874502769683</v>
+        <v>2.505803111267483</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3718686015113875</v>
+        <v>1.153793994361287</v>
       </c>
       <c r="N16">
-        <v>1.362808742951126</v>
+        <v>0.5857798479766405</v>
       </c>
       <c r="O16">
-        <v>2.222587390974297</v>
+        <v>1.986737953740231</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1759339258701829</v>
+        <v>0.391843366715122</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02561314447977736</v>
+        <v>0.05770174364271696</v>
       </c>
       <c r="E17">
-        <v>0.1797350164340727</v>
+        <v>0.4027518492920592</v>
       </c>
       <c r="F17">
-        <v>0.674460724179454</v>
+        <v>0.7095244487451993</v>
       </c>
       <c r="G17">
-        <v>0.002402144169084951</v>
+        <v>0.0007743335104399767</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.72571568926071</v>
+        <v>2.404511172432109</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3581462510880655</v>
+        <v>1.103611241011343</v>
       </c>
       <c r="N17">
-        <v>1.369318426135266</v>
+        <v>0.6015496976933736</v>
       </c>
       <c r="O17">
-        <v>2.215167754022332</v>
+        <v>1.927998818805008</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1732324504798157</v>
+        <v>0.3821818773442942</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02521635051903104</v>
+        <v>0.05652607436316259</v>
       </c>
       <c r="E18">
-        <v>0.1773063100580359</v>
+        <v>0.3922328316062149</v>
       </c>
       <c r="F18">
-        <v>0.6720876214495064</v>
+        <v>0.6954658630536557</v>
       </c>
       <c r="G18">
-        <v>0.002402743241440729</v>
+        <v>0.0007753139302715244</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7081753367175452</v>
+        <v>2.346336380414698</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3502600972068848</v>
+        <v>1.074862664988949</v>
       </c>
       <c r="N18">
-        <v>1.373115982277847</v>
+        <v>0.6107555220236911</v>
       </c>
       <c r="O18">
-        <v>2.211044159966434</v>
+        <v>1.894729095763694</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1723189171863453</v>
+        <v>0.378915154475294</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02508186728476858</v>
+        <v>0.05612794376690999</v>
       </c>
       <c r="E19">
-        <v>0.1764861319238449</v>
+        <v>0.3886868536865293</v>
       </c>
       <c r="F19">
-        <v>0.6712916715064381</v>
+        <v>0.6907332700214965</v>
       </c>
       <c r="G19">
-        <v>0.002402947509398596</v>
+        <v>0.000775647004815545</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7022341273839174</v>
+        <v>2.326653172104642</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3475911103978007</v>
+        <v>1.065147819465082</v>
       </c>
       <c r="N19">
-        <v>1.37441093163377</v>
+        <v>0.6138953960386377</v>
       </c>
       <c r="O19">
-        <v>2.209672696971126</v>
+        <v>1.883550706606371</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1764344484342217</v>
+        <v>0.3936336593260421</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02568651753814777</v>
+        <v>0.05791930246246579</v>
       </c>
       <c r="E20">
-        <v>0.1801855337263021</v>
+        <v>0.404706222082126</v>
       </c>
       <c r="F20">
-        <v>0.6749035153448659</v>
+        <v>0.7121395764232261</v>
       </c>
       <c r="G20">
-        <v>0.002402033974090301</v>
+        <v>0.0007741525852885393</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7289608941373729</v>
+        <v>2.415284783689884</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3596063376646441</v>
+        <v>1.108941150153044</v>
       </c>
       <c r="N20">
-        <v>1.368619936288432</v>
+        <v>0.5998568780436084</v>
       </c>
       <c r="O20">
-        <v>2.215942681706821</v>
+        <v>1.934197783842706</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1903405817485151</v>
+        <v>0.4434195488761361</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0277085195214184</v>
+        <v>0.06393426521058387</v>
       </c>
       <c r="E21">
-        <v>0.192764943773291</v>
+        <v>0.4596988343430795</v>
       </c>
       <c r="F21">
-        <v>0.6875639345570619</v>
+        <v>0.786081545026903</v>
       </c>
       <c r="G21">
-        <v>0.002399064005712689</v>
+        <v>0.0007692070651196569</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8185925646142209</v>
+        <v>2.714169860396424</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4000545047187956</v>
+        <v>1.257523318410179</v>
       </c>
       <c r="N21">
-        <v>1.349800675969398</v>
+        <v>0.5543317282750895</v>
       </c>
       <c r="O21">
-        <v>2.238730346106081</v>
+        <v>2.110704723114083</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.199486638753001</v>
+        <v>0.4762322361091407</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02902277991262281</v>
+        <v>0.06786389497663237</v>
       </c>
       <c r="E22">
-        <v>0.2010992940663172</v>
+        <v>0.4966179648174105</v>
       </c>
       <c r="F22">
-        <v>0.6962301798583468</v>
+        <v>0.8360519749353159</v>
       </c>
       <c r="G22">
-        <v>0.002397196724444374</v>
+        <v>0.0007660281355131228</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.877043976479456</v>
+        <v>2.910493767690497</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4265484357126752</v>
+        <v>1.355861356512861</v>
       </c>
       <c r="N22">
-        <v>1.337976881224243</v>
+        <v>0.5258595844723555</v>
       </c>
       <c r="O22">
-        <v>2.254908805037843</v>
+        <v>2.231213200620743</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1946000052834478</v>
+        <v>0.458692625978145</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02832200437936194</v>
+        <v>0.065766627228804</v>
       </c>
       <c r="E23">
-        <v>0.196640677461005</v>
+        <v>0.4768168681513103</v>
       </c>
       <c r="F23">
-        <v>0.6915689447868942</v>
+        <v>0.8092219581263436</v>
       </c>
       <c r="G23">
-        <v>0.002398186597828187</v>
+        <v>0.0007677201195476768</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8458593257980169</v>
+        <v>2.805610517952999</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.412402747406972</v>
+        <v>1.303253405351015</v>
       </c>
       <c r="N23">
-        <v>1.344243912085746</v>
+        <v>0.5409346738859213</v>
       </c>
       <c r="O23">
-        <v>2.24615628606486</v>
+        <v>2.166395778897567</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.176208145412474</v>
+        <v>0.3928241979558749</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02565334860749857</v>
+        <v>0.05782094691863193</v>
       </c>
       <c r="E24">
-        <v>0.1799818193733245</v>
+        <v>0.403822373402015</v>
       </c>
       <c r="F24">
-        <v>0.6747031960308192</v>
+        <v>0.710956788177711</v>
       </c>
       <c r="G24">
-        <v>0.002402083766291737</v>
+        <v>0.0007742343601137998</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7274938046491286</v>
+        <v>2.410413851748757</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3589462231588882</v>
+        <v>1.106531182236878</v>
       </c>
       <c r="N24">
-        <v>1.368935552064606</v>
+        <v>0.6006217680235864</v>
       </c>
       <c r="O24">
-        <v>2.215591894439655</v>
+        <v>1.931393679821554</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1566227105279552</v>
+        <v>0.3227890231290473</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02274450670763883</v>
+        <v>0.0492355890390499</v>
       </c>
       <c r="E25">
-        <v>0.1624895169464082</v>
+        <v>0.3286174447759649</v>
       </c>
       <c r="F25">
-        <v>0.6581897739990552</v>
+        <v>0.6111435680282753</v>
       </c>
       <c r="G25">
-        <v>0.002406606209473726</v>
+        <v>0.0007815088510280468</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5992923747097905</v>
+        <v>1.987295998403937</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3015359413704672</v>
+        <v>0.8986398037198455</v>
       </c>
       <c r="N25">
-        <v>1.39760926594735</v>
+        <v>0.670144027031732</v>
       </c>
       <c r="O25">
-        <v>2.188125926967984</v>
+        <v>1.697336910447433</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2719137746542373</v>
+        <v>0.5551486225386384</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04289194036979183</v>
+        <v>0.2052075306719559</v>
       </c>
       <c r="E2">
-        <v>0.2756040958910617</v>
+        <v>0.2306373754266708</v>
       </c>
       <c r="F2">
-        <v>0.5420621849940517</v>
+        <v>1.252447769948375</v>
       </c>
       <c r="G2">
-        <v>0.0007870986924349224</v>
+        <v>0.9129009378936956</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01499621191413536</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.005903807541808082</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.521256417563535</v>
       </c>
       <c r="K2">
-        <v>1.677345926795937</v>
+        <v>0.5634572921613668</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.304631752156709</v>
       </c>
       <c r="M2">
-        <v>0.7482615422432204</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7253983934922665</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.538971130520906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>3.153887678557282</v>
+      </c>
+      <c r="Q2">
+        <v>2.978315305392272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2377830767768359</v>
+        <v>0.4844269334166427</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03857458487054544</v>
+        <v>0.1900583338121038</v>
       </c>
       <c r="E3">
-        <v>0.240846181442997</v>
+        <v>0.2098549823110787</v>
       </c>
       <c r="F3">
-        <v>0.497586134636343</v>
+        <v>1.119040430366923</v>
       </c>
       <c r="G3">
-        <v>0.0007910421316792055</v>
+        <v>0.8033627102253433</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01105347003411651</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.006536737462649711</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4727033672915013</v>
       </c>
       <c r="K3">
-        <v>1.467776045659718</v>
+        <v>0.5248073823398443</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2746084294586382</v>
       </c>
       <c r="M3">
-        <v>0.6475754814028321</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7652185400757094</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.439119257556996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>2.848846467675344</v>
+      </c>
+      <c r="Q3">
+        <v>2.644154030929883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2169729142672452</v>
+        <v>0.4403425188864247</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03591348300165009</v>
+        <v>0.1807805270237708</v>
       </c>
       <c r="E4">
-        <v>0.2199908150383152</v>
+        <v>0.197087009869005</v>
       </c>
       <c r="F4">
-        <v>0.4713075899258925</v>
+        <v>1.037848524217239</v>
       </c>
       <c r="G4">
-        <v>0.0007935428235653887</v>
+        <v>0.7366820243289567</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.008858818694213649</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.006984047458405307</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4432567471646109</v>
       </c>
       <c r="K4">
-        <v>1.339188777085752</v>
+        <v>0.5017937305816815</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2561567540552048</v>
       </c>
       <c r="M4">
-        <v>0.5862233211552592</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7907890772308708</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.381119583507939</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>2.66318930675277</v>
+      </c>
+      <c r="Q4">
+        <v>2.440952684584374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2085259348282449</v>
+        <v>0.4209941194590385</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03482633655499257</v>
+        <v>0.1770041084576306</v>
       </c>
       <c r="E5">
-        <v>0.211601812768329</v>
+        <v>0.1918796579923026</v>
       </c>
       <c r="F5">
-        <v>0.4608405321534619</v>
+        <v>1.004924908037779</v>
       </c>
       <c r="G5">
-        <v>0.0007945822394108705</v>
+        <v>0.709637451656576</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.008016740777975651</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.007262387319728614</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4313412920229354</v>
       </c>
       <c r="K5">
-        <v>1.286790910977913</v>
+        <v>0.4937246986578074</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2486295205539761</v>
       </c>
       <c r="M5">
-        <v>0.5613213959477363</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8014839379991141</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.358264123233738</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>2.591606816166973</v>
+      </c>
+      <c r="Q5">
+        <v>2.358592242713428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2071252359375961</v>
+        <v>0.4162777628624781</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03464564779702783</v>
+        <v>0.1763772542018529</v>
       </c>
       <c r="E6">
-        <v>0.2102151008619373</v>
+        <v>0.191014653067775</v>
       </c>
       <c r="F6">
-        <v>0.4591165916552029</v>
+        <v>0.9994672734614767</v>
       </c>
       <c r="G6">
-        <v>0.0007947560747972954</v>
+        <v>0.7051540054327887</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.007879939267318642</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.007416628218720689</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4293676173463297</v>
       </c>
       <c r="K6">
-        <v>1.278089874314674</v>
+        <v>0.4937867603190966</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.247379039625848</v>
       </c>
       <c r="M6">
-        <v>0.5571919450203353</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8032761972008693</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.354514614877615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>2.584248125228982</v>
+      </c>
+      <c r="Q6">
+        <v>2.34494183969602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.216858864823223</v>
+        <v>0.4359882061084903</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03589883259654414</v>
+        <v>0.1807295813631526</v>
       </c>
       <c r="E7">
-        <v>0.2198772497330097</v>
+        <v>0.1970168022189434</v>
       </c>
       <c r="F7">
-        <v>0.4711654712782618</v>
+        <v>1.037403869622267</v>
       </c>
       <c r="G7">
-        <v>0.0007935567584736979</v>
+        <v>0.7363167933367691</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.008847256505647341</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.00726541706618633</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4430957195913976</v>
       </c>
       <c r="K7">
-        <v>1.338482136612214</v>
+        <v>0.5054972235828927</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2560552764102724</v>
       </c>
       <c r="M7">
-        <v>0.5858871055275827</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7909322089931639</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.380808256304221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>2.674567870790696</v>
+      </c>
+      <c r="Q7">
+        <v>2.439840203334938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2601130326684711</v>
+        <v>0.5254446543241045</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04140534180201882</v>
+        <v>0.1999781209540714</v>
       </c>
       <c r="E8">
-        <v>0.2635108949541873</v>
+        <v>0.2234716696852495</v>
       </c>
       <c r="F8">
-        <v>0.5265023589066971</v>
+        <v>1.20628786693166</v>
       </c>
       <c r="G8">
-        <v>0.0007884421550050999</v>
+        <v>0.8750023002421301</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01358696280972554</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.006448909612198683</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5044348639738274</v>
       </c>
       <c r="K8">
-        <v>1.605055165219056</v>
+        <v>0.5550966982667092</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2942810056964689</v>
       </c>
       <c r="M8">
-        <v>0.7134360526914136</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7388913327601951</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.503822822546908</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>3.064914032997706</v>
+      </c>
+      <c r="Q8">
+        <v>2.86265503233281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3462614931164296</v>
+        <v>0.7028054351514186</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05213043398460826</v>
+        <v>0.2379932959234736</v>
       </c>
       <c r="E9">
-        <v>0.3535410415691729</v>
+        <v>0.2754067253970547</v>
       </c>
       <c r="F9">
-        <v>0.6440230747219857</v>
+        <v>1.544085189981018</v>
       </c>
       <c r="G9">
-        <v>0.00077902343938597</v>
+        <v>1.152339151301106</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02489463299308525</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004899430836724505</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6279840887189039</v>
       </c>
       <c r="K9">
-        <v>2.12950552562836</v>
+        <v>0.6512957820391634</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3692826928724884</v>
       </c>
       <c r="M9">
-        <v>0.9681864224822974</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6460711105981503</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.773835144316678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>3.821446641586363</v>
+      </c>
+      <c r="Q9">
+        <v>3.709933704586888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4106136760617431</v>
+        <v>0.8274133909540637</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05997826437027243</v>
+        <v>0.2604487199424739</v>
       </c>
       <c r="E10">
-        <v>0.4233226556657286</v>
+        <v>0.3034744708662984</v>
       </c>
       <c r="F10">
-        <v>0.7370964699042872</v>
+        <v>1.774723683564886</v>
       </c>
       <c r="G10">
-        <v>0.0007724477561540409</v>
+        <v>1.346105187661976</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.03429952728057195</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.004225079272765164</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7142264330508965</v>
       </c>
       <c r="K10">
-        <v>2.517373558409076</v>
+        <v>0.7278334434132603</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4080941897066452</v>
       </c>
       <c r="M10">
-        <v>1.1595364764419</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5839989960226806</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.993512181915804</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>4.392771804451201</v>
+      </c>
+      <c r="Q10">
+        <v>4.301707473738077</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4401780332375864</v>
+        <v>0.8764230239592337</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06354461916165377</v>
+        <v>0.2233546388516032</v>
       </c>
       <c r="E11">
-        <v>0.4560806587197916</v>
+        <v>0.234723211517931</v>
       </c>
       <c r="F11">
-        <v>0.7811973159914203</v>
+        <v>1.683694899761235</v>
       </c>
       <c r="G11">
-        <v>0.0007695243591931849</v>
+        <v>1.310135947180669</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.05252127267771201</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.004438238943990314</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6927793480315074</v>
       </c>
       <c r="K11">
-        <v>2.694748729345832</v>
+        <v>0.7701677349607721</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2971522639341444</v>
       </c>
       <c r="M11">
-        <v>1.247826998114334</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.557208240870855</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.098976214034053</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>4.676079097228467</v>
+      </c>
+      <c r="Q11">
+        <v>4.180733887948236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4514201124623725</v>
+        <v>0.8984763595845209</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.06489484134447565</v>
+        <v>0.1907406311953395</v>
       </c>
       <c r="E12">
-        <v>0.4686514045995338</v>
+        <v>0.1813046817218122</v>
       </c>
       <c r="F12">
-        <v>0.7981772059283259</v>
+        <v>1.559892255972898</v>
       </c>
       <c r="G12">
-        <v>0.0007684265199915844</v>
+        <v>1.238969911002584</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08977146764147648</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.004298829379589364</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6562754731420171</v>
       </c>
       <c r="K12">
-        <v>2.762082982710609</v>
+        <v>0.782846160704473</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2159828707640301</v>
       </c>
       <c r="M12">
-        <v>1.281469217383176</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5472820004824062</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.139789613688038</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>4.772479656867574</v>
+      </c>
+      <c r="Q12">
+        <v>3.953512456708552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4489967701846496</v>
+        <v>0.8944612085593633</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06460405508154565</v>
+        <v>0.1598373736442937</v>
       </c>
       <c r="E13">
-        <v>0.4659363458326951</v>
+        <v>0.1368006231947092</v>
       </c>
       <c r="F13">
-        <v>0.7945073906166726</v>
+        <v>1.404496457274092</v>
       </c>
       <c r="G13">
-        <v>0.0007686625603130013</v>
+        <v>1.137033250489537</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1431267270612153</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.004278899009444004</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6062410878557216</v>
       </c>
       <c r="K13">
-        <v>2.747573417334451</v>
+        <v>0.7794029683508938</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1532872685762463</v>
       </c>
       <c r="M13">
-        <v>1.274213991375532</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.549409879483143</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.130959378630706</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>4.749436361342703</v>
+      </c>
+      <c r="Q13">
+        <v>3.632649870810894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4411019603890054</v>
+        <v>0.8785493236400725</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.06365570685212418</v>
+        <v>0.1396268570233232</v>
       </c>
       <c r="E14">
-        <v>0.4571114125883753</v>
+        <v>0.1113289329064795</v>
       </c>
       <c r="F14">
-        <v>0.7825884933638321</v>
+        <v>1.282900493778698</v>
       </c>
       <c r="G14">
-        <v>0.000769433858675411</v>
+        <v>1.052624768933512</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1904651362989398</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.004405233575643486</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5654779508184902</v>
       </c>
       <c r="K14">
-        <v>2.700284835815694</v>
+        <v>0.7709080011075216</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1208260792125238</v>
       </c>
       <c r="M14">
-        <v>1.250590406270547</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5563871521687727</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.102315904671343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>4.683040835970473</v>
+      </c>
+      <c r="Q14">
+        <v>3.368321711477165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.436272395696804</v>
+        <v>0.8673533903835278</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.06307478754961693</v>
+        <v>0.1346712100383556</v>
       </c>
       <c r="E15">
-        <v>0.4517281341629058</v>
+        <v>0.1057166762035688</v>
       </c>
       <c r="F15">
-        <v>0.7753250944381449</v>
+        <v>1.246607175014375</v>
       </c>
       <c r="G15">
-        <v>0.0007699074798165551</v>
+        <v>1.025678165276133</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2021622490206738</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.004585676017456741</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5527758070708444</v>
       </c>
       <c r="K15">
-        <v>2.671341848149126</v>
+        <v>0.7671135838124741</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1142462834044622</v>
       </c>
       <c r="M15">
-        <v>1.236148354296461</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5606897684506684</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.084887603497521</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>4.646875737567768</v>
+      </c>
+      <c r="Q15">
+        <v>3.2845728859715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4086878332008155</v>
+        <v>0.8121092984665097</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05974514170826239</v>
+        <v>0.132144056577701</v>
       </c>
       <c r="E16">
-        <v>0.4212039330581874</v>
+        <v>0.1040983921501741</v>
       </c>
       <c r="F16">
-        <v>0.734252043893278</v>
+        <v>1.182776691968286</v>
       </c>
       <c r="G16">
-        <v>0.000772640125123648</v>
+        <v>0.9653508623217277</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1858369109525739</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.005015896760759198</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5268231504146286</v>
       </c>
       <c r="K16">
-        <v>2.505803111267483</v>
+        <v>0.7367419866929481</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1124209813663093</v>
       </c>
       <c r="M16">
-        <v>1.153793994361287</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5857798479766405</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.986737953740231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>4.411745866443709</v>
+      </c>
+      <c r="Q16">
+        <v>3.102158268487756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.391843366715122</v>
+        <v>0.7780555216010328</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05770174364271696</v>
+        <v>0.1404919417646866</v>
       </c>
       <c r="E17">
-        <v>0.4027518492920592</v>
+        <v>0.1152147706854709</v>
       </c>
       <c r="F17">
-        <v>0.7095244487451993</v>
+        <v>1.197624073842519</v>
       </c>
       <c r="G17">
-        <v>0.0007743335104399767</v>
+        <v>0.9635398738693368</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1463619073775391</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.005306317657348458</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5284379638378169</v>
       </c>
       <c r="K17">
-        <v>2.404511172432109</v>
+        <v>0.7182930209565512</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.126076594618926</v>
       </c>
       <c r="M17">
-        <v>1.103611241011343</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6015496976933736</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.927998818805008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>4.267897868637277</v>
+      </c>
+      <c r="Q17">
+        <v>3.101578329706541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3821818773442942</v>
+        <v>0.7620504551375404</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05652607436316259</v>
+        <v>0.1609552013426381</v>
       </c>
       <c r="E18">
-        <v>0.3922328316062149</v>
+        <v>0.1438513208186478</v>
       </c>
       <c r="F18">
-        <v>0.6954658630536557</v>
+        <v>1.283304852563717</v>
       </c>
       <c r="G18">
-        <v>0.0007753139302715244</v>
+        <v>1.012260546548077</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.09358482393152912</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.005201912227954075</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5540293964768352</v>
       </c>
       <c r="K18">
-        <v>2.346336380414698</v>
+        <v>0.7042103834090341</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.164867307681142</v>
       </c>
       <c r="M18">
-        <v>1.074862664988949</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6107555220236911</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.894729095763694</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>4.173968501421967</v>
+      </c>
+      <c r="Q18">
+        <v>3.2583715411686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.378915154475294</v>
+        <v>0.7538120580645682</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05612794376690999</v>
+        <v>0.1925627610090714</v>
       </c>
       <c r="E19">
-        <v>0.3886868536865293</v>
+        <v>0.192661119207628</v>
       </c>
       <c r="F19">
-        <v>0.6907332700214965</v>
+        <v>1.423299503595089</v>
       </c>
       <c r="G19">
-        <v>0.000775647004815545</v>
+        <v>1.099715338489318</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.05032862311810504</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.00538150215640254</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5976663563215823</v>
       </c>
       <c r="K19">
-        <v>2.326653172104642</v>
+        <v>0.7021806382960278</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.236728701373238</v>
       </c>
       <c r="M19">
-        <v>1.065147819465082</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6138953960386377</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.883550706606371</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>4.15093092319924</v>
+      </c>
+      <c r="Q19">
+        <v>3.535110870480139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3936336593260421</v>
+        <v>0.781972452365693</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05791930246246579</v>
+        <v>0.2542942999338749</v>
       </c>
       <c r="E20">
-        <v>0.404706222082126</v>
+        <v>0.2956616248278365</v>
       </c>
       <c r="F20">
-        <v>0.7121395764232261</v>
+        <v>1.7128387200097</v>
       </c>
       <c r="G20">
-        <v>0.0007741525852885393</v>
+        <v>1.294305016720642</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.03167548206317061</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.005252132228532602</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6911074028796236</v>
       </c>
       <c r="K20">
-        <v>2.415284783689884</v>
+        <v>0.7199718592388606</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3971914512462575</v>
       </c>
       <c r="M20">
-        <v>1.108941150153044</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5998568780436084</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.934197783842706</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>4.282304901225046</v>
+      </c>
+      <c r="Q20">
+        <v>4.143378695458239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4434195488761361</v>
+        <v>0.8791446987356153</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.06393426521058387</v>
+        <v>0.2805466636790328</v>
       </c>
       <c r="E21">
-        <v>0.4596988343430795</v>
+        <v>0.3332327993997524</v>
       </c>
       <c r="F21">
-        <v>0.786081545026903</v>
+        <v>1.927308039966817</v>
       </c>
       <c r="G21">
-        <v>0.0007692070651196569</v>
+        <v>1.467111451542166</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.04019239336852243</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.004657007410598268</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7691653483843481</v>
       </c>
       <c r="K21">
-        <v>2.714169860396424</v>
+        <v>0.7773677113325732</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4527744831351441</v>
       </c>
       <c r="M21">
-        <v>1.257523318410179</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5543317282750895</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.110704723114083</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>4.715254362997882</v>
+      </c>
+      <c r="Q21">
+        <v>4.673468597066062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4762322361091407</v>
+        <v>0.9472815222385407</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.06786389497663237</v>
+        <v>0.294867812411411</v>
       </c>
       <c r="E22">
-        <v>0.4966179648174105</v>
+        <v>0.3526454370083414</v>
       </c>
       <c r="F22">
-        <v>0.8360519749353159</v>
+        <v>2.057272335647895</v>
       </c>
       <c r="G22">
-        <v>0.0007660281355131228</v>
+        <v>1.573927726432458</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.04590718970812357</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003983873804594751</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8172406397785039</v>
       </c>
       <c r="K22">
-        <v>2.910493767690497</v>
+        <v>0.810451163419394</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4808054516935414</v>
       </c>
       <c r="M22">
-        <v>1.355861356512861</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5258595844723555</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.231213200620743</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>4.983394309352434</v>
+      </c>
+      <c r="Q22">
+        <v>5.000767447104693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.458692625978145</v>
+        <v>0.9158952049805293</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.065766627228804</v>
+        <v>0.2872151636255609</v>
       </c>
       <c r="E23">
-        <v>0.4768168681513103</v>
+        <v>0.3422745681313089</v>
       </c>
       <c r="F23">
-        <v>0.8092219581263436</v>
+        <v>1.987767446515761</v>
       </c>
       <c r="G23">
-        <v>0.0007677201195476768</v>
+        <v>1.516797494339983</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.04281937570623384</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.004003525571841138</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.791518765714784</v>
       </c>
       <c r="K23">
-        <v>2.805610517952999</v>
+        <v>0.7879582864945291</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4658301126589066</v>
       </c>
       <c r="M23">
-        <v>1.303253405351015</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5409346738859213</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.166395778897567</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>4.824826428540348</v>
+      </c>
+      <c r="Q23">
+        <v>4.825695243888958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3928241979558749</v>
+        <v>0.7879251788613431</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05782094691863193</v>
+        <v>0.2584189790794227</v>
       </c>
       <c r="E24">
-        <v>0.403822373402015</v>
+        <v>0.3031943550646332</v>
       </c>
       <c r="F24">
-        <v>0.710956788177711</v>
+        <v>1.727445812555743</v>
       </c>
       <c r="G24">
-        <v>0.0007742343601137998</v>
+        <v>1.302917318934703</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.03191297593985842</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.004721862074491767</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6954194084187577</v>
       </c>
       <c r="K24">
-        <v>2.410413851748757</v>
+        <v>0.7117378459152022</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4094034945277372</v>
       </c>
       <c r="M24">
-        <v>1.106531182236878</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6006217680235864</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.931393679821554</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>4.251808598753968</v>
+      </c>
+      <c r="Q24">
+        <v>4.170660286305122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3227890231290473</v>
+        <v>0.6479434544527294</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0492355890390499</v>
+        <v>0.2276685309032445</v>
       </c>
       <c r="E25">
-        <v>0.3286174447759649</v>
+        <v>0.2613334507810521</v>
       </c>
       <c r="F25">
-        <v>0.6111435680282753</v>
+        <v>1.451860035174974</v>
       </c>
       <c r="G25">
-        <v>0.0007815088510280468</v>
+        <v>1.07661727435547</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02158826468353592</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.005746076940672751</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5941568797643129</v>
       </c>
       <c r="K25">
-        <v>1.987295998403937</v>
+        <v>0.6317499572742733</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3489619419528083</v>
       </c>
       <c r="M25">
-        <v>0.8986398037198455</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.670144027031732</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.697336910447433</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>3.638247859403037</v>
+      </c>
+      <c r="Q25">
+        <v>3.478412847628249</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5551486225386384</v>
+        <v>0.726105212583775</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2052075306719559</v>
+        <v>0.2010015744856304</v>
       </c>
       <c r="E2">
-        <v>0.2306373754266708</v>
+        <v>0.227481062598148</v>
       </c>
       <c r="F2">
-        <v>1.252447769948375</v>
+        <v>1.257411458448033</v>
       </c>
       <c r="G2">
-        <v>0.9129009378936956</v>
+        <v>0.9020504502901616</v>
       </c>
       <c r="H2">
-        <v>0.01499621191413536</v>
+        <v>0.01375477738077813</v>
       </c>
       <c r="I2">
-        <v>0.005903807541808082</v>
+        <v>0.003179542007366365</v>
       </c>
       <c r="J2">
-        <v>0.521256417563535</v>
+        <v>0.5794583124776409</v>
       </c>
       <c r="K2">
-        <v>0.5634572921613668</v>
+        <v>0.4096165942057581</v>
       </c>
       <c r="L2">
-        <v>0.304631752156709</v>
+        <v>0.152476242914279</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1593407899550066</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3015114198524458</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>3.153887678557282</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.978315305392272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>2.67121566805838</v>
+      </c>
+      <c r="S2">
+        <v>2.991946704411191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4844269334166427</v>
+        <v>0.6396226992278002</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1900583338121038</v>
+        <v>0.1861154570425327</v>
       </c>
       <c r="E3">
-        <v>0.2098549823110787</v>
+        <v>0.2069544958606748</v>
       </c>
       <c r="F3">
-        <v>1.119040430366923</v>
+        <v>1.124511244146873</v>
       </c>
       <c r="G3">
-        <v>0.8033627102253433</v>
+        <v>0.7914344396182571</v>
       </c>
       <c r="H3">
-        <v>0.01105347003411651</v>
+        <v>0.01005898783776883</v>
       </c>
       <c r="I3">
-        <v>0.006536737462649711</v>
+        <v>0.003531692534076036</v>
       </c>
       <c r="J3">
-        <v>0.4727033672915013</v>
+        <v>0.5300197071801733</v>
       </c>
       <c r="K3">
-        <v>0.5248073823398443</v>
+        <v>0.3830356128572774</v>
       </c>
       <c r="L3">
-        <v>0.2746084294586382</v>
+        <v>0.1378569949286828</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1560397040523078</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2717872892233544</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>2.848846467675344</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.644154030929883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>2.40891530794633</v>
+      </c>
+      <c r="S3">
+        <v>2.659645103484905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4403425188864247</v>
+        <v>0.5855435650226752</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1807805270237708</v>
+        <v>0.1770029199789178</v>
       </c>
       <c r="E4">
-        <v>0.197087009869005</v>
+        <v>0.1943432783948964</v>
       </c>
       <c r="F4">
-        <v>1.037848524217239</v>
+        <v>1.043574939529762</v>
       </c>
       <c r="G4">
-        <v>0.7366820243289567</v>
+        <v>0.7241908448119574</v>
       </c>
       <c r="H4">
-        <v>0.008858818694213649</v>
+        <v>0.008008723978855603</v>
       </c>
       <c r="I4">
-        <v>0.006984047458405307</v>
+        <v>0.003800623455802121</v>
       </c>
       <c r="J4">
-        <v>0.4432567471646109</v>
+        <v>0.4998191518193522</v>
       </c>
       <c r="K4">
-        <v>0.5017937305816815</v>
+        <v>0.3674513613478041</v>
       </c>
       <c r="L4">
-        <v>0.2561567540552048</v>
+        <v>0.1298101716901066</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1541393598707756</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2535161783561293</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>2.66318930675277</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2.440952684584374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>2.249867428701691</v>
+      </c>
+      <c r="S4">
+        <v>2.457408153728863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4209941194590385</v>
+        <v>0.562006664380192</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1770041084576306</v>
+        <v>0.1732948513500574</v>
       </c>
       <c r="E5">
-        <v>0.1918796579923026</v>
+        <v>0.1891998530525854</v>
       </c>
       <c r="F5">
-        <v>1.004924908037779</v>
+        <v>1.010742816848577</v>
       </c>
       <c r="G5">
-        <v>0.709637451656576</v>
+        <v>0.6969396634505216</v>
       </c>
       <c r="H5">
-        <v>0.008016740777975651</v>
+        <v>0.007223909238585846</v>
       </c>
       <c r="I5">
-        <v>0.007262387319728614</v>
+        <v>0.00401404339868261</v>
       </c>
       <c r="J5">
-        <v>0.4313412920229354</v>
+        <v>0.4875470457030957</v>
       </c>
       <c r="K5">
-        <v>0.4937246986578074</v>
+        <v>0.3620511004451714</v>
       </c>
       <c r="L5">
-        <v>0.2486295205539761</v>
+        <v>0.1269514605989528</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1537803130244271</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2460619420126946</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>2.591606816166973</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.358592242713428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>2.188456033425126</v>
+      </c>
+      <c r="S5">
+        <v>2.375400463093655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4162777628624781</v>
+        <v>0.5565461400956053</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1763772542018529</v>
+        <v>0.1726794087187855</v>
       </c>
       <c r="E6">
-        <v>0.191014653067775</v>
+        <v>0.1883454695756619</v>
       </c>
       <c r="F6">
-        <v>0.9994672734614767</v>
+        <v>1.005299647920765</v>
       </c>
       <c r="G6">
-        <v>0.7051540054327887</v>
+        <v>0.6924232267202655</v>
       </c>
       <c r="H6">
-        <v>0.007879939267318642</v>
+        <v>0.007096527940309294</v>
       </c>
       <c r="I6">
-        <v>0.007416628218720689</v>
+        <v>0.004170240505320777</v>
       </c>
       <c r="J6">
-        <v>0.4293676173463297</v>
+        <v>0.4855112621696094</v>
       </c>
       <c r="K6">
-        <v>0.4937867603190966</v>
+        <v>0.3621099119833922</v>
       </c>
       <c r="L6">
-        <v>0.247379039625848</v>
+        <v>0.1267226092832736</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1541939056750152</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2448235526846787</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>2.584248125228982</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.34494183969602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>2.181851710248765</v>
+      </c>
+      <c r="S6">
+        <v>2.361806326352422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4359882061084903</v>
+        <v>0.5810232791935164</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1807295813631526</v>
+        <v>0.1771513907937816</v>
       </c>
       <c r="E7">
-        <v>0.1970168022189434</v>
+        <v>0.1943186759311004</v>
       </c>
       <c r="F7">
-        <v>1.037403869622267</v>
+        <v>1.041291510680637</v>
       </c>
       <c r="G7">
-        <v>0.7363167933367691</v>
+        <v>0.7285946429517907</v>
       </c>
       <c r="H7">
-        <v>0.008847256505647341</v>
+        <v>0.007988334486403487</v>
       </c>
       <c r="I7">
-        <v>0.00726541706618633</v>
+        <v>0.004114010968706339</v>
       </c>
       <c r="J7">
-        <v>0.4430957195913976</v>
+        <v>0.4917600512354028</v>
       </c>
       <c r="K7">
-        <v>0.5054972235828927</v>
+        <v>0.3699809685399593</v>
       </c>
       <c r="L7">
-        <v>0.2560552764102724</v>
+        <v>0.1304404849251668</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1554026516621327</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.253333853338944</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>2.674567870790696</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>2.439840203334938</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>2.258827443959319</v>
+      </c>
+      <c r="S7">
+        <v>2.450467123203993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5254446543241045</v>
+        <v>0.6909255388225404</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1999781209540714</v>
+        <v>0.1965317252356584</v>
       </c>
       <c r="E8">
-        <v>0.2234716696852495</v>
+        <v>0.2205578949385298</v>
       </c>
       <c r="F8">
-        <v>1.20628786693166</v>
+        <v>1.205276522675348</v>
       </c>
       <c r="G8">
-        <v>0.8750023002421301</v>
+        <v>0.8798039240806332</v>
       </c>
       <c r="H8">
-        <v>0.01358696280972554</v>
+        <v>0.01239519410430723</v>
       </c>
       <c r="I8">
-        <v>0.006448909612198683</v>
+        <v>0.003671214025694702</v>
       </c>
       <c r="J8">
-        <v>0.5044348639738274</v>
+        <v>0.5361883833374748</v>
       </c>
       <c r="K8">
-        <v>0.5550966982667092</v>
+        <v>0.4038514883091295</v>
       </c>
       <c r="L8">
-        <v>0.2942810056964689</v>
+        <v>0.1482848651444222</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1597809015873679</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2909944046296573</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>3.064914032997706</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>2.86265503233281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>2.593570145490986</v>
+      </c>
+      <c r="S8">
+        <v>2.857429462492973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7028054351514186</v>
+        <v>0.905996496734673</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2379932959234736</v>
+        <v>0.2341088538306053</v>
       </c>
       <c r="E9">
-        <v>0.2754067253970547</v>
+        <v>0.2718974205507294</v>
       </c>
       <c r="F9">
-        <v>1.544085189981018</v>
+        <v>1.539631101893363</v>
       </c>
       <c r="G9">
-        <v>1.152339151301106</v>
+        <v>1.165156998079254</v>
       </c>
       <c r="H9">
-        <v>0.02489463299308525</v>
+        <v>0.02301309980876765</v>
       </c>
       <c r="I9">
-        <v>0.004899430836724505</v>
+        <v>0.002749535205114562</v>
       </c>
       <c r="J9">
-        <v>0.6279840887189039</v>
+        <v>0.6530032654483193</v>
       </c>
       <c r="K9">
-        <v>0.6512957820391634</v>
+        <v>0.4714058524226417</v>
       </c>
       <c r="L9">
-        <v>0.3692826928724884</v>
+        <v>0.1892043083013206</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1672824385116698</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.365147856514966</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>3.821446641586363</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>3.709933704586888</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>3.248317306373849</v>
+      </c>
+      <c r="S9">
+        <v>3.693149955882632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8274133909540637</v>
+        <v>1.056783412503904</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2604487199424739</v>
+        <v>0.2574718806774428</v>
       </c>
       <c r="E10">
-        <v>0.3034744708662984</v>
+        <v>0.2998314121328463</v>
       </c>
       <c r="F10">
-        <v>1.774723683564886</v>
+        <v>1.756424074931999</v>
       </c>
       <c r="G10">
-        <v>1.346105187661976</v>
+        <v>1.394465671117302</v>
       </c>
       <c r="H10">
-        <v>0.03429952728057195</v>
+        <v>0.03179062286686785</v>
       </c>
       <c r="I10">
-        <v>0.004225079272765164</v>
+        <v>0.002522011162386484</v>
       </c>
       <c r="J10">
-        <v>0.7142264330508965</v>
+        <v>0.6875282369845479</v>
       </c>
       <c r="K10">
-        <v>0.7278334434132603</v>
+        <v>0.5263384972155549</v>
       </c>
       <c r="L10">
-        <v>0.4080941897066452</v>
+        <v>0.224365723354083</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1740479552305629</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.4029023838153307</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>4.392771804451201</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>4.301707473738077</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>3.745125269751696</v>
+      </c>
+      <c r="S10">
+        <v>4.240415797098876</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8764230239592337</v>
+        <v>1.117364721571732</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2233546388516032</v>
+        <v>0.2225014863075927</v>
       </c>
       <c r="E11">
-        <v>0.234723211517931</v>
+        <v>0.2315905502005009</v>
       </c>
       <c r="F11">
-        <v>1.683694899761235</v>
+        <v>1.642708711871506</v>
       </c>
       <c r="G11">
-        <v>1.310135947180669</v>
+        <v>1.422292423030001</v>
       </c>
       <c r="H11">
-        <v>0.05252127267771201</v>
+        <v>0.0498102560666922</v>
       </c>
       <c r="I11">
-        <v>0.004438238943990314</v>
+        <v>0.003002328864869952</v>
       </c>
       <c r="J11">
-        <v>0.6927793480315074</v>
+        <v>0.5745929831237788</v>
       </c>
       <c r="K11">
-        <v>0.7701677349607721</v>
+        <v>0.5570146288295206</v>
       </c>
       <c r="L11">
-        <v>0.2971522639341444</v>
+        <v>0.2431910490156852</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1790508168471305</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2915053608738205</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>4.676079097228467</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>4.180733887948236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>3.990823712439578</v>
+      </c>
+      <c r="S11">
+        <v>4.045082617337698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8984763595845209</v>
+        <v>1.143771739568905</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1907406311953395</v>
+        <v>0.1904490329947635</v>
       </c>
       <c r="E12">
-        <v>0.1813046817218122</v>
+        <v>0.1783117803611347</v>
       </c>
       <c r="F12">
-        <v>1.559892255972898</v>
+        <v>1.510490552837737</v>
       </c>
       <c r="G12">
-        <v>1.238969911002584</v>
+        <v>1.377716244400631</v>
       </c>
       <c r="H12">
-        <v>0.08977146764147648</v>
+        <v>0.08705298280926144</v>
       </c>
       <c r="I12">
-        <v>0.004298829379589364</v>
+        <v>0.002926219342556102</v>
       </c>
       <c r="J12">
-        <v>0.6562754731420171</v>
+        <v>0.5036268261483201</v>
       </c>
       <c r="K12">
-        <v>0.782846160704473</v>
+        <v>0.56625071664768</v>
       </c>
       <c r="L12">
-        <v>0.2159828707640301</v>
+        <v>0.2495488536326036</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1800146900426114</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2105618500620139</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>4.772479656867574</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>3.953512456708552</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>4.075149850847737</v>
+      </c>
+      <c r="S12">
+        <v>3.788567013214504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8944612085593633</v>
+        <v>1.138823380213353</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1598373736442937</v>
+        <v>0.1588258592753675</v>
       </c>
       <c r="E13">
-        <v>0.1368006231947092</v>
+        <v>0.1337214432084544</v>
       </c>
       <c r="F13">
-        <v>1.404496457274092</v>
+        <v>1.360521926558221</v>
       </c>
       <c r="G13">
-        <v>1.137033250489537</v>
+        <v>1.263664447075058</v>
       </c>
       <c r="H13">
-        <v>0.1431267270612153</v>
+        <v>0.14057502052259</v>
       </c>
       <c r="I13">
-        <v>0.004278899009444004</v>
+        <v>0.002884585139966589</v>
       </c>
       <c r="J13">
-        <v>0.6062410878557216</v>
+        <v>0.4707856916708124</v>
       </c>
       <c r="K13">
-        <v>0.7794029683508938</v>
+        <v>0.5637442566582891</v>
       </c>
       <c r="L13">
-        <v>0.1532872685762463</v>
+        <v>0.2479816636650014</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1796159839195823</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1485768407371637</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>4.749436361342703</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>3.632649870810894</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>4.055133138113518</v>
+      </c>
+      <c r="S13">
+        <v>3.483189373353014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8785493236400725</v>
+        <v>1.119851314132347</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1396268570233232</v>
+        <v>0.1377541958683466</v>
       </c>
       <c r="E14">
-        <v>0.1113289329064795</v>
+        <v>0.1081726829842218</v>
       </c>
       <c r="F14">
-        <v>1.282900493778698</v>
+        <v>1.248015346316905</v>
       </c>
       <c r="G14">
-        <v>1.052624768933512</v>
+        <v>1.15540825853472</v>
       </c>
       <c r="H14">
-        <v>0.1904651362989398</v>
+        <v>0.1880966053892621</v>
       </c>
       <c r="I14">
-        <v>0.004405233575643486</v>
+        <v>0.002971059119072805</v>
       </c>
       <c r="J14">
-        <v>0.5654779508184902</v>
+        <v>0.4623266328875673</v>
       </c>
       <c r="K14">
-        <v>0.7709080011075216</v>
+        <v>0.5575548820124467</v>
       </c>
       <c r="L14">
-        <v>0.1208260792125238</v>
+        <v>0.2436304333209947</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1790485541235469</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1167227222627254</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>4.683040835970473</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>3.368321711477165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>3.996973316757874</v>
+      </c>
+      <c r="S14">
+        <v>3.247373769167581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8673533903835278</v>
+        <v>1.106768504028395</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1346712100383556</v>
+        <v>0.132454896080759</v>
       </c>
       <c r="E15">
-        <v>0.1057166762035688</v>
+        <v>0.102546380313056</v>
       </c>
       <c r="F15">
-        <v>1.246607175014375</v>
+        <v>1.216147242568638</v>
       </c>
       <c r="G15">
-        <v>1.025678165276133</v>
+        <v>1.116272868027863</v>
       </c>
       <c r="H15">
-        <v>0.2021622490206738</v>
+        <v>0.1998753302149368</v>
       </c>
       <c r="I15">
-        <v>0.004585676017456741</v>
+        <v>0.003143638877340038</v>
       </c>
       <c r="J15">
-        <v>0.5527758070708444</v>
+        <v>0.4662090416318989</v>
       </c>
       <c r="K15">
-        <v>0.7671135838124741</v>
+        <v>0.5547859089091034</v>
       </c>
       <c r="L15">
-        <v>0.1142462834044622</v>
+        <v>0.2413562023586096</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1790817860188056</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1103419385377897</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>4.646875737567768</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>3.2845728859715</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>3.965012659181838</v>
+      </c>
+      <c r="S15">
+        <v>3.177997150697507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8121092984665097</v>
+        <v>1.040649227358074</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.132144056577701</v>
+        <v>0.1287146936179866</v>
       </c>
       <c r="E16">
-        <v>0.1040983921501741</v>
+        <v>0.1009360726751201</v>
       </c>
       <c r="F16">
-        <v>1.182776691968286</v>
+        <v>1.17107318720609</v>
       </c>
       <c r="G16">
-        <v>0.9653508623217277</v>
+        <v>1.002938313515045</v>
       </c>
       <c r="H16">
-        <v>0.1858369109525739</v>
+        <v>0.1839019752131463</v>
       </c>
       <c r="I16">
-        <v>0.005015896760759198</v>
+        <v>0.003422648797398509</v>
       </c>
       <c r="J16">
-        <v>0.5268231504146286</v>
+        <v>0.5155727318516483</v>
       </c>
       <c r="K16">
-        <v>0.7367419866929481</v>
+        <v>0.5327418696935666</v>
       </c>
       <c r="L16">
-        <v>0.1124209813663093</v>
+        <v>0.2262062242633007</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1769300220484311</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1090562357861664</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>4.411745866443709</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>3.102158268487756</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>3.759433214787379</v>
+      </c>
+      <c r="S16">
+        <v>3.058146105053481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7780555216010328</v>
+        <v>0.9998368602336143</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1404919417646866</v>
+        <v>0.1365749285990745</v>
       </c>
       <c r="E17">
-        <v>0.1152147706854709</v>
+        <v>0.1120305736626772</v>
       </c>
       <c r="F17">
-        <v>1.197624073842519</v>
+        <v>1.193667047333804</v>
       </c>
       <c r="G17">
-        <v>0.9635398738693368</v>
+        <v>0.9791487661885725</v>
       </c>
       <c r="H17">
-        <v>0.1463619073775391</v>
+        <v>0.1445804565367723</v>
       </c>
       <c r="I17">
-        <v>0.005306317657348458</v>
+        <v>0.003619014218632088</v>
       </c>
       <c r="J17">
-        <v>0.5284379638378169</v>
+        <v>0.5504386556868042</v>
       </c>
       <c r="K17">
-        <v>0.7182930209565512</v>
+        <v>0.5194061732214337</v>
       </c>
       <c r="L17">
-        <v>0.126076594618926</v>
+        <v>0.2171449077486827</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1756483311110131</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1228531784570066</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>4.267897868637277</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>3.101578329706541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>3.633805871427484</v>
+      </c>
+      <c r="S17">
+        <v>3.083745870791688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7620504551375404</v>
+        <v>0.9799431663908535</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1609552013426381</v>
+        <v>0.1567706615512137</v>
       </c>
       <c r="E18">
-        <v>0.1438513208186478</v>
+        <v>0.1405543854905922</v>
       </c>
       <c r="F18">
-        <v>1.283304852563717</v>
+        <v>1.282390728603303</v>
       </c>
       <c r="G18">
-        <v>1.012260546548077</v>
+        <v>1.018649198413115</v>
       </c>
       <c r="H18">
-        <v>0.09358482393152912</v>
+        <v>0.09182575759515288</v>
       </c>
       <c r="I18">
-        <v>0.005201912227954075</v>
+        <v>0.003414306215243634</v>
       </c>
       <c r="J18">
-        <v>0.5540293964768352</v>
+        <v>0.5905044774804082</v>
       </c>
       <c r="K18">
-        <v>0.7042103834090341</v>
+        <v>0.5092679598537515</v>
       </c>
       <c r="L18">
-        <v>0.164867307681142</v>
+        <v>0.2111189711718637</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1739336174038471</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1615422715508075</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>4.173968501421967</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>3.2583715411686</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>3.552566743167631</v>
+      </c>
+      <c r="S18">
+        <v>3.251109707422842</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7538120580645682</v>
+        <v>0.9703595947250108</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1925627610090714</v>
+        <v>0.1882124431631667</v>
       </c>
       <c r="E19">
-        <v>0.192661119207628</v>
+        <v>0.1891711346040488</v>
       </c>
       <c r="F19">
-        <v>1.423299503595089</v>
+        <v>1.422822738313229</v>
       </c>
       <c r="G19">
-        <v>1.099715338489318</v>
+        <v>1.103709801813693</v>
       </c>
       <c r="H19">
-        <v>0.05032862311810504</v>
+        <v>0.04847494845118661</v>
       </c>
       <c r="I19">
-        <v>0.00538150215640254</v>
+        <v>0.003594476720333972</v>
       </c>
       <c r="J19">
-        <v>0.5976663563215823</v>
+        <v>0.6382848692021525</v>
       </c>
       <c r="K19">
-        <v>0.7021806382960278</v>
+        <v>0.5078025191339037</v>
       </c>
       <c r="L19">
-        <v>0.236728701373238</v>
+        <v>0.2097881680638238</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1741186162573918</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2331056954130162</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>4.15093092319924</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>3.535110870480139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>3.532155292285381</v>
+      </c>
+      <c r="S19">
+        <v>3.529840309121653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.781972452365693</v>
+        <v>1.004478775272645</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2542942999338749</v>
+        <v>0.2503341155630636</v>
       </c>
       <c r="E20">
-        <v>0.2956616248278365</v>
+        <v>0.2918796639931927</v>
       </c>
       <c r="F20">
-        <v>1.7128387200097</v>
+        <v>1.705003991399167</v>
       </c>
       <c r="G20">
-        <v>1.294305016720642</v>
+        <v>1.315344583349031</v>
       </c>
       <c r="H20">
-        <v>0.03167548206317061</v>
+        <v>0.02939204782175331</v>
       </c>
       <c r="I20">
-        <v>0.005252132228532602</v>
+        <v>0.003571218719520708</v>
       </c>
       <c r="J20">
-        <v>0.6911074028796236</v>
+        <v>0.7060420551499647</v>
       </c>
       <c r="K20">
-        <v>0.7199718592388606</v>
+        <v>0.5206188965282763</v>
       </c>
       <c r="L20">
-        <v>0.3971914512462575</v>
+        <v>0.2180290810508012</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1757059250054382</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3925691399906697</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>4.282304901225046</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>4.143378695458239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>3.646440191411045</v>
+      </c>
+      <c r="S20">
+        <v>4.115440030060597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8791446987356153</v>
+        <v>1.121331427857939</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2805466636790328</v>
+        <v>0.2813889223058368</v>
       </c>
       <c r="E21">
-        <v>0.3332327993997524</v>
+        <v>0.3302979475396413</v>
       </c>
       <c r="F21">
-        <v>1.927308039966817</v>
+        <v>1.87209349459782</v>
       </c>
       <c r="G21">
-        <v>1.467111451542166</v>
+        <v>1.613977281382859</v>
       </c>
       <c r="H21">
-        <v>0.04019239336852243</v>
+        <v>0.03705776246686021</v>
       </c>
       <c r="I21">
-        <v>0.004657007410598268</v>
+        <v>0.003282633636206178</v>
       </c>
       <c r="J21">
-        <v>0.7691653483843481</v>
+        <v>0.6026564261624543</v>
       </c>
       <c r="K21">
-        <v>0.7773677113325732</v>
+        <v>0.5622399905628654</v>
       </c>
       <c r="L21">
-        <v>0.4527744831351441</v>
+        <v>0.2459756668717503</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1802842895536898</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4456761100015285</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>4.715254362997882</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>4.673468597066062</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>4.024364298758513</v>
+      </c>
+      <c r="S21">
+        <v>4.49532446381204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9472815222385407</v>
+        <v>1.202066445071125</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.294867812411411</v>
+        <v>0.2993695625048218</v>
       </c>
       <c r="E22">
-        <v>0.3526454370083414</v>
+        <v>0.3504259840545174</v>
       </c>
       <c r="F22">
-        <v>2.057272335647895</v>
+        <v>1.967483564777154</v>
       </c>
       <c r="G22">
-        <v>1.573927726432458</v>
+        <v>1.815899873047414</v>
       </c>
       <c r="H22">
-        <v>0.04590718970812357</v>
+        <v>0.04217803079742177</v>
       </c>
       <c r="I22">
-        <v>0.003983873804594751</v>
+        <v>0.002742905351884595</v>
       </c>
       <c r="J22">
-        <v>0.8172406397785039</v>
+        <v>0.5299320657549487</v>
       </c>
       <c r="K22">
-        <v>0.810451163419394</v>
+        <v>0.586419625104547</v>
       </c>
       <c r="L22">
-        <v>0.4808054516935414</v>
+        <v>0.2636436538101705</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1820462359639521</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4719923155687695</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>4.983394309352434</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>5.000767447104693</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>4.259884813161733</v>
+      </c>
+      <c r="S22">
+        <v>4.713285147249678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9158952049805293</v>
+        <v>1.163996300388987</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2872151636255609</v>
+        <v>0.2891566807030301</v>
       </c>
       <c r="E23">
-        <v>0.3422745681313089</v>
+        <v>0.3395204451322584</v>
       </c>
       <c r="F23">
-        <v>1.987767446515761</v>
+        <v>1.921589306564726</v>
       </c>
       <c r="G23">
-        <v>1.516797494339983</v>
+        <v>1.693352292505438</v>
       </c>
       <c r="H23">
-        <v>0.04281937570623384</v>
+        <v>0.03944939299843853</v>
       </c>
       <c r="I23">
-        <v>0.004003525571841138</v>
+        <v>0.002637213644123726</v>
       </c>
       <c r="J23">
-        <v>0.791518765714784</v>
+        <v>0.5858775275363968</v>
       </c>
       <c r="K23">
-        <v>0.7879582864945291</v>
+        <v>0.5699955822840792</v>
       </c>
       <c r="L23">
-        <v>0.4658301126589066</v>
+        <v>0.2528433705207789</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1798131773193106</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4581436861087411</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>4.824826428540348</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>4.825695243888958</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>4.121589423601591</v>
+      </c>
+      <c r="S23">
+        <v>4.612810863026255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7879251788613431</v>
+        <v>1.010159765287909</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2584189790794227</v>
+        <v>0.2544168195220067</v>
       </c>
       <c r="E24">
-        <v>0.3031943550646332</v>
+        <v>0.2993841709402076</v>
       </c>
       <c r="F24">
-        <v>1.727445812555743</v>
+        <v>1.719915724793637</v>
       </c>
       <c r="G24">
-        <v>1.302917318934703</v>
+        <v>1.322999173299877</v>
       </c>
       <c r="H24">
-        <v>0.03191297593985842</v>
+        <v>0.02961669748332141</v>
       </c>
       <c r="I24">
-        <v>0.004721862074491767</v>
+        <v>0.002949021180336686</v>
       </c>
       <c r="J24">
-        <v>0.6954194084187577</v>
+        <v>0.7118870930243304</v>
       </c>
       <c r="K24">
-        <v>0.7117378459152022</v>
+        <v>0.5147038972880082</v>
       </c>
       <c r="L24">
-        <v>0.4094034945277372</v>
+        <v>0.2157073618184384</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1736002496317468</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.4047512417325976</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>4.251808598753968</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>4.170660286305122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>3.621333730405183</v>
+      </c>
+      <c r="S24">
+        <v>4.14377850464507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6479434544527294</v>
+        <v>0.8411086027822705</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2276685309032445</v>
+        <v>0.2236076866478527</v>
       </c>
       <c r="E25">
-        <v>0.2613334507810521</v>
+        <v>0.2579184592760839</v>
       </c>
       <c r="F25">
-        <v>1.451860035174974</v>
+        <v>1.451074693461379</v>
       </c>
       <c r="G25">
-        <v>1.07661727435547</v>
+        <v>1.080176027311893</v>
       </c>
       <c r="H25">
-        <v>0.02158826468353592</v>
+        <v>0.01992152003202774</v>
       </c>
       <c r="I25">
-        <v>0.005746076940672751</v>
+        <v>0.003501266619448273</v>
       </c>
       <c r="J25">
-        <v>0.5941568797643129</v>
+        <v>0.6324704822700937</v>
       </c>
       <c r="K25">
-        <v>0.6317499572742733</v>
+        <v>0.4575221199960211</v>
       </c>
       <c r="L25">
-        <v>0.3489619419528083</v>
+        <v>0.1790127887569533</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1672236603547539</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3451776905392165</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>3.638247859403037</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>3.478412847628249</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>3.087883014189657</v>
+      </c>
+      <c r="S25">
+        <v>3.473435604318638</v>
       </c>
     </row>
   </sheetData>
